--- a/Group-Assignment-DATA.xlsx
+++ b/Group-Assignment-DATA.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d55507cee9b678a/Documents/Canada/Class/MGCR 271/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1069" documentId="8_{30F53432-5214-4E62-AB0D-0AF4BBA82138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E3FF824-5236-4855-ABEE-7A215FCC4DD6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A3DBF2-0048-4427-A183-1294A84BB641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{3BEE1876-1CFF-4EA7-A854-6C6C41A34077}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{09CFE8DC-97AF-490B-BCC6-37F498E34AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+  <si>
+    <t>A "draw in the last confrontation" is the excluded variable</t>
+  </si>
+  <si>
+    <t>Ligue 1 2018-2019</t>
+  </si>
   <si>
     <t>Observation</t>
   </si>
@@ -40,16 +45,22 @@
     <t>Odds</t>
   </si>
   <si>
+    <t>Ranking Difference</t>
+  </si>
+  <si>
     <t>Home(1) / Away(0)</t>
   </si>
   <si>
-    <t>Points earned on last five games</t>
-  </si>
-  <si>
-    <t>Ranking</t>
-  </si>
-  <si>
-    <t>Ranking Difference</t>
+    <t>Team Value (in millions of euros)</t>
+  </si>
+  <si>
+    <t>Win the last confrontation (Win=1, Not a win=0)</t>
+  </si>
+  <si>
+    <t>Loss in the last confrontation (Loss =1, Not a loss = 0)</t>
+  </si>
+  <si>
+    <t>Matchday 20</t>
   </si>
   <si>
     <t>Caen 20</t>
@@ -112,7 +123,7 @@
     <t>Guingamp 20</t>
   </si>
   <si>
-    <t>Matchday 20</t>
+    <t>Matchday 21</t>
   </si>
   <si>
     <t>Paris 21</t>
@@ -160,22 +171,22 @@
     <t>Angers 21</t>
   </si>
   <si>
+    <t>Caen 21</t>
+  </si>
+  <si>
+    <t>Amiens 21</t>
+  </si>
+  <si>
     <t>Dijon 21</t>
   </si>
   <si>
-    <t>Amiens 21</t>
-  </si>
-  <si>
-    <t>Caen 21</t>
-  </si>
-  <si>
     <t>Monaco 21</t>
   </si>
   <si>
     <t>Guingamp 21</t>
   </si>
   <si>
-    <t>Matchday 21</t>
+    <t>Matchday 22</t>
   </si>
   <si>
     <t>Paris 22</t>
@@ -238,16 +249,7 @@
     <t>Guingamp 22</t>
   </si>
   <si>
-    <t>Matchday 22</t>
-  </si>
-  <si>
-    <t>Loss in the last confrontation (Loss =1, Not a loss = 0)</t>
-  </si>
-  <si>
-    <t>Win the last confrontation (Win=1, Not a win=0)</t>
-  </si>
-  <si>
-    <t>A "draw in the last confrontation" is the excluded variable</t>
+    <t>Matchday 23</t>
   </si>
   <si>
     <t>Paris 23</t>
@@ -310,7 +312,7 @@
     <t>Guingamp 23</t>
   </si>
   <si>
-    <t>Matchday 23</t>
+    <t>Matchday 24</t>
   </si>
   <si>
     <t>Paris 24</t>
@@ -373,10 +375,7 @@
     <t>Guingamp 24</t>
   </si>
   <si>
-    <t>Matchday 24</t>
-  </si>
-  <si>
-    <t>Ligue 1 2018-2019</t>
+    <t>Matchday 25</t>
   </si>
   <si>
     <t>Paris 25</t>
@@ -439,7 +438,7 @@
     <t>Guingamp 25</t>
   </si>
   <si>
-    <t>Matchday 25</t>
+    <t>Matchday 26</t>
   </si>
   <si>
     <t>Paris 26</t>
@@ -502,14 +501,17 @@
     <t>Guingamp 26</t>
   </si>
   <si>
-    <t>Matchday 26</t>
+    <t>Points earned in last five games</t>
+  </si>
+  <si>
+    <t>Overall Ranking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,12 +527,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -538,12 +534,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -557,8 +547,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -582,8 +578,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -594,6 +594,26 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -665,46 +685,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,729 +1045,804 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636043AA-C4F0-4BC3-B30B-7DBB9829490B}">
-  <dimension ref="B2:J143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D5BAAE-0140-4B8C-A0B5-37D875CFCEB9}">
+  <dimension ref="B2:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" customWidth="1"/>
-    <col min="9" max="9" width="26.26953125" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="5" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="2:10" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-14</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="5"/>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E5" s="10">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>150.25</v>
+      </c>
+      <c r="H5" s="10">
+        <v>8</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="5"/>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>912.65</v>
+      </c>
+      <c r="H6" s="10">
+        <v>11</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E7" s="10">
+        <v>13</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H7" s="10">
+        <v>4</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="E8" s="10">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>389.4</v>
+      </c>
+      <c r="H8" s="10">
+        <v>6</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="C9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="E9" s="10">
+        <v>13</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>271.05</v>
+      </c>
+      <c r="H9" s="10">
+        <v>6</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="E10" s="10">
+        <v>16</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>102.35</v>
+      </c>
+      <c r="H10" s="10">
+        <v>6</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="H11" s="10">
+        <v>6</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E12" s="10">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="H12" s="10">
+        <v>6</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="E13" s="10">
+        <v>6</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>83.4</v>
+      </c>
+      <c r="H13" s="10">
+        <v>6</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="E14" s="10">
+        <v>-5</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>120.75</v>
+      </c>
+      <c r="H14" s="10">
+        <v>6</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="E15" s="10">
+        <v>-8</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>59.7</v>
+      </c>
+      <c r="H15" s="10">
+        <v>6</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="E16" s="10">
+        <v>-4</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>98.55</v>
+      </c>
+      <c r="H16" s="10">
+        <v>6</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1</v>
+      </c>
+      <c r="K16" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="E17" s="10">
+        <v>4</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>131.44999999999999</v>
+      </c>
+      <c r="H17" s="10">
+        <v>6</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="E18" s="10">
+        <v>-5</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>58</v>
+      </c>
+      <c r="H18" s="10">
+        <v>6</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1</v>
+      </c>
+      <c r="K18" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2.15</v>
+      </c>
+      <c r="E19" s="10">
+        <v>-6</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>72.45</v>
+      </c>
+      <c r="H19" s="10">
+        <v>6</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D20" s="10">
+        <v>3.25</v>
+      </c>
+      <c r="E20" s="10">
+        <v>-13</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <v>73.05</v>
+      </c>
+      <c r="H20" s="10">
         <v>6</v>
       </c>
-      <c r="D4" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="E4" s="5">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5">
-        <v>-14</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1</v>
+      </c>
+      <c r="K20" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="E21" s="10">
+        <v>-13</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>304.85000000000002</v>
+      </c>
+      <c r="H21" s="10">
         <v>6</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="3"/>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2</v>
-      </c>
-      <c r="F5" s="9">
-        <v>14</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>8</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>16</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>11</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="3"/>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E7" s="9">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="10">
         <v>13</v>
       </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>4</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1.45</v>
-      </c>
-      <c r="E8" s="9">
-        <v>3</v>
-      </c>
-      <c r="F8" s="9">
-        <v>8</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="E22" s="10">
+        <v>-16</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10">
+        <v>62.2</v>
+      </c>
+      <c r="H22" s="10">
         <v>6</v>
       </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1.75</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+      <c r="K22" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="E23" s="10">
+        <v>-16</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>30.35</v>
+      </c>
+      <c r="H23" s="10">
         <v>6</v>
       </c>
-      <c r="F9" s="9">
-        <v>13</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>6</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="9">
-        <v>2.75</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4</v>
-      </c>
-      <c r="F10" s="9">
-        <v>16</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>6</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
-      <c r="C11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="E11" s="9">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9">
-        <v>5</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9">
-        <v>6</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="3"/>
-      <c r="C12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E12" s="9">
-        <v>10</v>
-      </c>
-      <c r="F12" s="9">
-        <v>5</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9">
-        <v>6</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="3"/>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="E13" s="9">
-        <v>8</v>
-      </c>
-      <c r="F13" s="9">
-        <v>6</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>6</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2.9</v>
-      </c>
-      <c r="E14" s="9">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9">
-        <v>-5</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>6</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="3"/>
-      <c r="C15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="9">
-        <v>6.5</v>
-      </c>
-      <c r="E15" s="9">
-        <v>11</v>
-      </c>
-      <c r="F15" s="9">
-        <v>-8</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>6</v>
-      </c>
-      <c r="I15" s="9">
-        <v>1</v>
-      </c>
-      <c r="J15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="3"/>
-      <c r="C16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="E16" s="9">
-        <v>13</v>
-      </c>
-      <c r="F16" s="9">
-        <v>-4</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9">
-        <v>6</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="3"/>
-      <c r="C17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="E17" s="9">
-        <v>9</v>
-      </c>
-      <c r="F17" s="9">
-        <v>4</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>6</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1</v>
-      </c>
-      <c r="J17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="C18" s="8" t="s">
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
         <v>20</v>
       </c>
-      <c r="D18" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="E18" s="9">
-        <v>15</v>
-      </c>
-      <c r="F18" s="9">
-        <v>-5</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>6</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="3"/>
-      <c r="C19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2.15</v>
-      </c>
-      <c r="E19" s="9">
-        <v>14</v>
-      </c>
-      <c r="F19" s="9">
-        <v>-6</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9">
-        <v>6</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="9">
-        <v>3.25</v>
-      </c>
-      <c r="E20" s="9">
-        <v>18</v>
-      </c>
-      <c r="F20" s="9">
-        <v>-13</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9">
-        <v>6</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1</v>
-      </c>
-      <c r="J20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
-      <c r="C21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="E21" s="9">
-        <v>19</v>
-      </c>
-      <c r="F21" s="9">
-        <v>-13</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>6</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="3"/>
-      <c r="C22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="9">
-        <v>13</v>
-      </c>
-      <c r="E22" s="9">
-        <v>17</v>
-      </c>
-      <c r="F22" s="9">
-        <v>-16</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9">
-        <v>6</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="3"/>
-      <c r="C23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="E23" s="9">
-        <v>20</v>
-      </c>
-      <c r="F23" s="9">
-        <v>-16</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9">
-        <v>6</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>27</v>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="D24" s="12">
         <v>1.05</v>
       </c>
       <c r="E24" s="12">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F24" s="12">
-        <v>19</v>
-      </c>
-      <c r="G24" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <v>912.65</v>
       </c>
       <c r="H24" s="12">
         <v>13</v>
       </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="3"/>
-      <c r="C25" s="11" t="s">
-        <v>28</v>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="5"/>
+      <c r="C25" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D25" s="12">
         <v>1.6</v>
       </c>
       <c r="E25" s="12">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F25" s="12">
-        <v>15</v>
-      </c>
-      <c r="G25" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>150.25</v>
       </c>
       <c r="H25" s="12">
         <v>10</v>
       </c>
-      <c r="I25" s="9">
-        <v>1</v>
-      </c>
-      <c r="J25" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="3"/>
-      <c r="C26" s="11" t="s">
-        <v>29</v>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="5"/>
+      <c r="C26" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D26" s="12">
         <v>3.4</v>
       </c>
       <c r="E26" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="12">
         <v>1</v>
       </c>
-      <c r="G26" s="12">
-        <v>1</v>
+      <c r="G26" s="10">
+        <v>102.35</v>
       </c>
       <c r="H26" s="12">
         <v>10</v>
       </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="3"/>
-      <c r="C27" s="11" t="s">
-        <v>30</v>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1</v>
+      </c>
+      <c r="K26" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="5"/>
+      <c r="C27" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D27" s="12">
         <v>2.0499999999999998</v>
       </c>
       <c r="E27" s="12">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F27" s="12">
-        <v>-1</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>389.4</v>
       </c>
       <c r="H27" s="12">
         <v>6</v>
       </c>
-      <c r="I27" s="9">
-        <v>1</v>
-      </c>
-      <c r="J27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="3"/>
-      <c r="C28" s="11" t="s">
-        <v>31</v>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="5"/>
+      <c r="C28" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D28" s="12">
         <v>3.9</v>
       </c>
       <c r="E28" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" s="12">
-        <v>4</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>81.599999999999994</v>
       </c>
       <c r="H28" s="12">
         <v>2</v>
@@ -1750,26 +1850,29 @@
       <c r="I28" s="12">
         <v>0</v>
       </c>
-      <c r="J28" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="3"/>
-      <c r="C29" s="11" t="s">
-        <v>32</v>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="5"/>
+      <c r="C29" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="D29" s="12">
         <v>1.75</v>
       </c>
       <c r="E29" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F29" s="12">
-        <v>10</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>271.05</v>
       </c>
       <c r="H29" s="12">
         <v>5</v>
@@ -1777,26 +1880,29 @@
       <c r="I29" s="12">
         <v>1</v>
       </c>
-      <c r="J29" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="3"/>
-      <c r="C30" s="11" t="s">
-        <v>33</v>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="5"/>
+      <c r="C30" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D30" s="12">
         <v>3.7</v>
       </c>
       <c r="E30" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F30" s="12">
-        <v>4</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <v>131.69999999999999</v>
       </c>
       <c r="H30" s="12">
         <v>6</v>
@@ -1804,26 +1910,29 @@
       <c r="I30" s="12">
         <v>0</v>
       </c>
-      <c r="J30" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="3"/>
-      <c r="C31" s="11" t="s">
-        <v>34</v>
+      <c r="J30" s="11">
+        <v>1</v>
+      </c>
+      <c r="K30" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
+      <c r="C31" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D31" s="12">
         <v>4.25</v>
       </c>
       <c r="E31" s="12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F31" s="12">
-        <v>11</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>83.4</v>
       </c>
       <c r="H31" s="12">
         <v>8</v>
@@ -1831,26 +1940,29 @@
       <c r="I31" s="12">
         <v>1</v>
       </c>
-      <c r="J31" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="3"/>
-      <c r="C32" s="11" t="s">
-        <v>35</v>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B32" s="5"/>
+      <c r="C32" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D32" s="12">
         <v>2</v>
       </c>
       <c r="E32" s="12">
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="F32" s="12">
-        <v>-4</v>
-      </c>
-      <c r="G32" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
+        <v>131.44999999999999</v>
       </c>
       <c r="H32" s="12">
         <v>12</v>
@@ -1858,53 +1970,59 @@
       <c r="I32" s="12">
         <v>0</v>
       </c>
-      <c r="J32" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="3"/>
-      <c r="C33" s="11" t="s">
-        <v>36</v>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33" s="5"/>
+      <c r="C33" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D33" s="12">
         <v>1.95</v>
       </c>
       <c r="E33" s="12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F33" s="12">
-        <v>4</v>
-      </c>
-      <c r="G33" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
+        <v>76.599999999999994</v>
       </c>
       <c r="H33" s="12">
         <v>9</v>
       </c>
       <c r="I33" s="12">
-        <v>0</v>
-      </c>
-      <c r="J33" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="3"/>
-      <c r="C34" s="11" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="5"/>
+      <c r="C34" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="D34" s="12">
         <v>2.15</v>
       </c>
       <c r="E34" s="12">
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="F34" s="12">
-        <v>-4</v>
-      </c>
-      <c r="G34" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
+        <v>59.7</v>
       </c>
       <c r="H34" s="12">
         <v>6</v>
@@ -1912,26 +2030,29 @@
       <c r="I34" s="12">
         <v>1</v>
       </c>
-      <c r="J34" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="3"/>
-      <c r="C35" s="11" t="s">
-        <v>38</v>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="5"/>
+      <c r="C35" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D35" s="12">
         <v>1.6</v>
       </c>
       <c r="E35" s="12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F35" s="12">
-        <v>6</v>
-      </c>
-      <c r="G35" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <v>120.75</v>
       </c>
       <c r="H35" s="12">
         <v>7</v>
@@ -1939,26 +2060,29 @@
       <c r="I35" s="12">
         <v>1</v>
       </c>
-      <c r="J35" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="3"/>
-      <c r="C36" s="11" t="s">
-        <v>39</v>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B36" s="5"/>
+      <c r="C36" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="D36" s="12">
         <v>3.4</v>
       </c>
       <c r="E36" s="12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F36" s="12">
-        <v>2</v>
-      </c>
-      <c r="G36" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>98.55</v>
       </c>
       <c r="H36" s="12">
         <v>6</v>
@@ -1966,53 +2090,59 @@
       <c r="I36" s="12">
         <v>0</v>
       </c>
-      <c r="J36" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="3"/>
-      <c r="C37" s="11" t="s">
-        <v>40</v>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B37" s="5"/>
+      <c r="C37" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D37" s="12">
         <v>3.7</v>
       </c>
       <c r="E37" s="12">
-        <v>14</v>
+        <v>-4</v>
       </c>
       <c r="F37" s="12">
-        <v>-4</v>
-      </c>
-      <c r="G37" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G37" s="10">
+        <v>72.45</v>
       </c>
       <c r="H37" s="12">
         <v>7</v>
       </c>
       <c r="I37" s="12">
-        <v>1</v>
-      </c>
-      <c r="J37" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="3"/>
-      <c r="C38" s="11" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <v>1</v>
+      </c>
+      <c r="K37" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B38" s="5"/>
+      <c r="C38" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D38" s="12">
         <v>2.35</v>
       </c>
       <c r="E38" s="12">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="F38" s="12">
-        <v>-2</v>
-      </c>
-      <c r="G38" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
+        <v>58</v>
       </c>
       <c r="H38" s="12">
         <v>3</v>
@@ -2020,26 +2150,29 @@
       <c r="I38" s="12">
         <v>0</v>
       </c>
-      <c r="J38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="3"/>
-      <c r="C39" s="11" t="s">
-        <v>44</v>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B39" s="5"/>
+      <c r="C39" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D39" s="12">
         <v>4.45</v>
       </c>
       <c r="E39" s="12">
-        <v>16</v>
+        <v>-10</v>
       </c>
       <c r="F39" s="12">
-        <v>-10</v>
-      </c>
-      <c r="G39" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
+        <v>26.2</v>
       </c>
       <c r="H39" s="12">
         <v>5</v>
@@ -2047,26 +2180,29 @@
       <c r="I39" s="12">
         <v>0</v>
       </c>
-      <c r="J39" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="3"/>
-      <c r="C40" s="11" t="s">
-        <v>43</v>
+      <c r="J39" s="11">
+        <v>1</v>
+      </c>
+      <c r="K39" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B40" s="5"/>
+      <c r="C40" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D40" s="12">
         <v>6.5</v>
       </c>
       <c r="E40" s="12">
-        <v>17</v>
+        <v>-15</v>
       </c>
       <c r="F40" s="12">
-        <v>-15</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>62.2</v>
       </c>
       <c r="H40" s="12">
         <v>5</v>
@@ -2074,26 +2210,29 @@
       <c r="I40" s="12">
         <v>0</v>
       </c>
-      <c r="J40" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="3"/>
-      <c r="C41" s="11" t="s">
-        <v>42</v>
+      <c r="J40" s="11">
+        <v>1</v>
+      </c>
+      <c r="K40" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B41" s="5"/>
+      <c r="C41" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D41" s="12">
         <v>5.5</v>
       </c>
       <c r="E41" s="12">
-        <v>18</v>
+        <v>-6</v>
       </c>
       <c r="F41" s="12">
-        <v>-6</v>
-      </c>
-      <c r="G41" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>73.05</v>
       </c>
       <c r="H41" s="12">
         <v>4</v>
@@ -2101,26 +2240,29 @@
       <c r="I41" s="12">
         <v>0</v>
       </c>
-      <c r="J41" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="3"/>
-      <c r="C42" s="11" t="s">
-        <v>45</v>
+      <c r="J41" s="11">
+        <v>1</v>
+      </c>
+      <c r="K41" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B42" s="5"/>
+      <c r="C42" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D42" s="12">
         <v>1.85</v>
       </c>
       <c r="E42" s="12">
-        <v>19</v>
+        <v>-11</v>
       </c>
       <c r="F42" s="12">
-        <v>-11</v>
-      </c>
-      <c r="G42" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G42" s="10">
+        <v>304.85000000000002</v>
       </c>
       <c r="H42" s="12">
         <v>5</v>
@@ -2128,55 +2270,61 @@
       <c r="I42" s="12">
         <v>0</v>
       </c>
-      <c r="J42" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="3"/>
-      <c r="C43" s="11" t="s">
-        <v>46</v>
+      <c r="J42" s="11">
+        <v>1</v>
+      </c>
+      <c r="K42" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B43" s="5"/>
+      <c r="C43" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D43" s="12">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E43" s="12">
-        <v>20</v>
+        <v>-19</v>
       </c>
       <c r="F43" s="12">
-        <v>-19</v>
-      </c>
-      <c r="G43" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>30.35</v>
       </c>
       <c r="H43" s="12">
         <v>6</v>
       </c>
       <c r="I43" s="12">
-        <v>1</v>
-      </c>
-      <c r="J43" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
+        <v>1</v>
+      </c>
+      <c r="K43" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D44" s="12">
         <v>1.1499999999999999</v>
       </c>
       <c r="E44" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F44" s="12">
-        <v>8</v>
-      </c>
-      <c r="G44" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G44" s="10">
+        <v>912.65</v>
       </c>
       <c r="H44" s="12">
         <v>15</v>
@@ -2184,26 +2332,29 @@
       <c r="I44" s="12">
         <v>1</v>
       </c>
-      <c r="J44" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="3"/>
-      <c r="C45" s="11" t="s">
-        <v>49</v>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B45" s="5"/>
+      <c r="C45" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D45" s="12">
         <v>3</v>
       </c>
       <c r="E45" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="12">
-        <v>3</v>
-      </c>
-      <c r="G45" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G45" s="10">
+        <v>150.25</v>
       </c>
       <c r="H45" s="12">
         <v>10</v>
@@ -2211,26 +2362,29 @@
       <c r="I45" s="12">
         <v>1</v>
       </c>
-      <c r="J45" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="3"/>
-      <c r="C46" s="11" t="s">
-        <v>50</v>
+      <c r="J45" s="11">
+        <v>0</v>
+      </c>
+      <c r="K45" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B46" s="5"/>
+      <c r="C46" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D46" s="12">
         <v>1.46</v>
       </c>
       <c r="E46" s="12">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F46" s="12">
-        <v>14</v>
-      </c>
-      <c r="G46" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G46" s="10">
+        <v>389.4</v>
       </c>
       <c r="H46" s="12">
         <v>9</v>
@@ -2238,26 +2392,29 @@
       <c r="I46" s="12">
         <v>1</v>
       </c>
-      <c r="J46" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="3"/>
-      <c r="C47" s="11" t="s">
-        <v>51</v>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B47" s="5"/>
+      <c r="C47" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D47" s="12">
         <v>2.65</v>
       </c>
       <c r="E47" s="12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F47" s="12">
-        <v>10</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G47" s="10">
+        <v>102.35</v>
       </c>
       <c r="H47" s="12">
         <v>10</v>
@@ -2265,26 +2422,29 @@
       <c r="I47" s="12">
         <v>1</v>
       </c>
-      <c r="J47" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="3"/>
-      <c r="C48" s="11" t="s">
-        <v>52</v>
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B48" s="5"/>
+      <c r="C48" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D48" s="12">
         <v>2.4</v>
       </c>
       <c r="E48" s="12">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="F48" s="12">
-        <v>-3</v>
-      </c>
-      <c r="G48" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G48" s="10">
+        <v>271.05</v>
       </c>
       <c r="H48" s="12">
         <v>8</v>
@@ -2292,26 +2452,29 @@
       <c r="I48" s="12">
         <v>0</v>
       </c>
-      <c r="J48" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="3"/>
-      <c r="C49" s="11" t="s">
-        <v>53</v>
+      <c r="J48" s="11">
+        <v>1</v>
+      </c>
+      <c r="K48" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B49" s="5"/>
+      <c r="C49" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="D49" s="12">
         <v>2.15</v>
       </c>
       <c r="E49" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" s="12">
-        <v>5</v>
-      </c>
-      <c r="G49" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G49" s="10">
+        <v>83.4</v>
       </c>
       <c r="H49" s="12">
         <v>10</v>
@@ -2319,53 +2482,59 @@
       <c r="I49" s="12">
         <v>1</v>
       </c>
-      <c r="J49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="3"/>
-      <c r="C50" s="11" t="s">
-        <v>54</v>
+      <c r="J49" s="11">
+        <v>0</v>
+      </c>
+      <c r="K49" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B50" s="5"/>
+      <c r="C50" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D50" s="12">
         <v>1.5</v>
       </c>
       <c r="E50" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F50" s="12">
-        <v>9</v>
-      </c>
-      <c r="G50" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G50" s="10">
+        <v>81.599999999999994</v>
       </c>
       <c r="H50" s="12">
         <v>3</v>
       </c>
       <c r="I50" s="12">
-        <v>0</v>
-      </c>
-      <c r="J50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="3"/>
-      <c r="C51" s="11" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B51" s="5"/>
+      <c r="C51" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D51" s="12">
         <v>2.35</v>
       </c>
       <c r="E51" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F51" s="12">
-        <v>2</v>
-      </c>
-      <c r="G51" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G51" s="10">
+        <v>131.69999999999999</v>
       </c>
       <c r="H51" s="12">
         <v>6</v>
@@ -2373,26 +2542,29 @@
       <c r="I51" s="12">
         <v>1</v>
       </c>
-      <c r="J51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="3"/>
-      <c r="C52" s="11" t="s">
-        <v>56</v>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B52" s="5"/>
+      <c r="C52" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D52" s="12">
         <v>15</v>
       </c>
       <c r="E52" s="12">
-        <v>9</v>
+        <v>-8</v>
       </c>
       <c r="F52" s="12">
-        <v>-8</v>
-      </c>
-      <c r="G52" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G52" s="10">
+        <v>131.44999999999999</v>
       </c>
       <c r="H52" s="12">
         <v>10</v>
@@ -2400,26 +2572,29 @@
       <c r="I52" s="12">
         <v>0</v>
       </c>
-      <c r="J52" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="3"/>
-      <c r="C53" s="11" t="s">
-        <v>57</v>
+      <c r="J52" s="11">
+        <v>1</v>
+      </c>
+      <c r="K52" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B53" s="5"/>
+      <c r="C53" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D53" s="12">
         <v>3.25</v>
       </c>
       <c r="E53" s="12">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="F53" s="12">
-        <v>-2</v>
-      </c>
-      <c r="G53" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G53" s="10">
+        <v>76.599999999999994</v>
       </c>
       <c r="H53" s="12">
         <v>6</v>
@@ -2427,26 +2602,29 @@
       <c r="I53" s="12">
         <v>0</v>
       </c>
-      <c r="J53" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="3"/>
-      <c r="C54" s="11" t="s">
-        <v>58</v>
+      <c r="J53" s="11">
+        <v>1</v>
+      </c>
+      <c r="K53" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B54" s="5"/>
+      <c r="C54" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="D54" s="12">
         <v>3.5</v>
       </c>
       <c r="E54" s="12">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="F54" s="12">
-        <v>-5</v>
-      </c>
-      <c r="G54" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G54" s="10">
+        <v>120.75</v>
       </c>
       <c r="H54" s="12">
         <v>7</v>
@@ -2454,26 +2632,29 @@
       <c r="I54" s="12">
         <v>0</v>
       </c>
-      <c r="J54" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="3"/>
-      <c r="C55" s="11" t="s">
-        <v>59</v>
+      <c r="J54" s="11">
+        <v>1</v>
+      </c>
+      <c r="K54" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B55" s="5"/>
+      <c r="C55" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="D55" s="12">
         <v>3</v>
       </c>
       <c r="E55" s="12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F55" s="12">
-        <v>8</v>
-      </c>
-      <c r="G55" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G55" s="10">
+        <v>59.7</v>
       </c>
       <c r="H55" s="12">
         <v>7</v>
@@ -2481,26 +2662,29 @@
       <c r="I55" s="12">
         <v>1</v>
       </c>
-      <c r="J55" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="3"/>
-      <c r="C56" s="11" t="s">
-        <v>60</v>
+      <c r="J55" s="11">
+        <v>0</v>
+      </c>
+      <c r="K55" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B56" s="5"/>
+      <c r="C56" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D56" s="12">
         <v>2.2000000000000002</v>
       </c>
       <c r="E56" s="12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F56" s="12">
-        <v>2</v>
-      </c>
-      <c r="G56" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G56" s="10">
+        <v>72.45</v>
       </c>
       <c r="H56" s="12">
         <v>7</v>
@@ -2508,26 +2692,29 @@
       <c r="I56" s="12">
         <v>0</v>
       </c>
-      <c r="J56" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="3"/>
-      <c r="C57" s="11" t="s">
-        <v>61</v>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B57" s="5"/>
+      <c r="C57" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D57" s="12">
         <v>2.75</v>
       </c>
       <c r="E57" s="12">
-        <v>14</v>
+        <v>-10</v>
       </c>
       <c r="F57" s="12">
-        <v>-10</v>
-      </c>
-      <c r="G57" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G57" s="10">
+        <v>98.55</v>
       </c>
       <c r="H57" s="12">
         <v>3</v>
@@ -2535,26 +2722,29 @@
       <c r="I57" s="12">
         <v>0</v>
       </c>
-      <c r="J57" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="3"/>
-      <c r="C58" s="11" t="s">
-        <v>62</v>
+      <c r="J57" s="11">
+        <v>1</v>
+      </c>
+      <c r="K57" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B58" s="5"/>
+      <c r="C58" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D58" s="12">
         <v>3.5</v>
       </c>
       <c r="E58" s="12">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="F58" s="12">
-        <v>-2</v>
-      </c>
-      <c r="G58" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G58" s="10">
+        <v>58</v>
       </c>
       <c r="H58" s="12">
         <v>5</v>
@@ -2562,26 +2752,29 @@
       <c r="I58" s="12">
         <v>0</v>
       </c>
-      <c r="J58" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="3"/>
-      <c r="C59" s="11" t="s">
-        <v>63</v>
+      <c r="J58" s="11">
+        <v>0</v>
+      </c>
+      <c r="K58" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B59" s="5"/>
+      <c r="C59" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D59" s="12">
         <v>7</v>
       </c>
       <c r="E59" s="12">
-        <v>16</v>
+        <v>-9</v>
       </c>
       <c r="F59" s="12">
-        <v>-9</v>
-      </c>
-      <c r="G59" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
+        <v>26.2</v>
       </c>
       <c r="H59" s="12">
         <v>5</v>
@@ -2589,26 +2782,29 @@
       <c r="I59" s="12">
         <v>0</v>
       </c>
-      <c r="J59" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="3"/>
-      <c r="C60" s="11" t="s">
-        <v>64</v>
+      <c r="J59" s="11">
+        <v>1</v>
+      </c>
+      <c r="K59" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B60" s="5"/>
+      <c r="C60" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D60" s="12">
         <v>6.5</v>
       </c>
       <c r="E60" s="12">
-        <v>17</v>
+        <v>-14</v>
       </c>
       <c r="F60" s="12">
-        <v>-14</v>
-      </c>
-      <c r="G60" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G60" s="10">
+        <v>62.2</v>
       </c>
       <c r="H60" s="12">
         <v>5</v>
@@ -2616,80 +2812,89 @@
       <c r="I60" s="12">
         <v>0</v>
       </c>
-      <c r="J60" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="3"/>
-      <c r="C61" s="11" t="s">
-        <v>65</v>
+      <c r="J60" s="11">
+        <v>1</v>
+      </c>
+      <c r="K60" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B61" s="5"/>
+      <c r="C61" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D61" s="12">
         <v>3.6</v>
       </c>
       <c r="E61" s="12">
+        <v>1</v>
+      </c>
+      <c r="F61" s="12">
+        <v>1</v>
+      </c>
+      <c r="G61" s="10">
+        <v>73.05</v>
+      </c>
+      <c r="H61" s="12">
+        <v>1</v>
+      </c>
+      <c r="I61" s="12">
+        <v>0</v>
+      </c>
+      <c r="J61" s="11">
+        <v>1</v>
+      </c>
+      <c r="K61" s="13">
         <v>18</v>
       </c>
-      <c r="F61" s="12">
-        <v>1</v>
-      </c>
-      <c r="G61" s="12">
-        <v>1</v>
-      </c>
-      <c r="H61" s="12">
-        <v>1</v>
-      </c>
-      <c r="I61" s="12">
-        <v>0</v>
-      </c>
-      <c r="J61" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="3"/>
-      <c r="C62" s="11" t="s">
-        <v>66</v>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B62" s="5"/>
+      <c r="C62" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="D62" s="12">
         <v>2.0499999999999998</v>
       </c>
       <c r="E62" s="12">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="F62" s="12">
-        <v>-1</v>
-      </c>
-      <c r="G62" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G62" s="10">
+        <v>304.85000000000002</v>
       </c>
       <c r="H62" s="12">
         <v>2</v>
       </c>
       <c r="I62" s="12">
-        <v>0</v>
-      </c>
-      <c r="J62" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="3"/>
-      <c r="C63" s="11" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="J62" s="11">
+        <v>0</v>
+      </c>
+      <c r="K62" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B63" s="5"/>
+      <c r="C63" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D63" s="12">
         <v>2.6</v>
       </c>
       <c r="E63" s="12">
-        <v>20</v>
+        <v>-8</v>
       </c>
       <c r="F63" s="12">
-        <v>-8</v>
-      </c>
-      <c r="G63" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G63" s="10">
+        <v>30.35</v>
       </c>
       <c r="H63" s="12">
         <v>6</v>
@@ -2697,28 +2902,31 @@
       <c r="I63" s="12">
         <v>0</v>
       </c>
-      <c r="J63" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" s="11" t="s">
+      <c r="J63" s="11">
+        <v>1</v>
+      </c>
+      <c r="K63" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B64" s="5" t="s">
         <v>72</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="D64" s="12">
         <v>2</v>
       </c>
       <c r="E64" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="12">
-        <v>2</v>
-      </c>
-      <c r="G64" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G64" s="10">
+        <v>912.65</v>
       </c>
       <c r="H64" s="12">
         <v>15</v>
@@ -2726,53 +2934,59 @@
       <c r="I64" s="12">
         <v>1</v>
       </c>
-      <c r="J64" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="3"/>
-      <c r="C65" s="11" t="s">
-        <v>73</v>
+      <c r="J64" s="11">
+        <v>0</v>
+      </c>
+      <c r="K64" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B65" s="5"/>
+      <c r="C65" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D65" s="12">
         <v>1.8</v>
       </c>
       <c r="E65" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F65" s="12">
-        <v>6</v>
-      </c>
-      <c r="G65" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G65" s="10">
+        <v>150.25</v>
       </c>
       <c r="H65" s="12">
         <v>12</v>
       </c>
       <c r="I65" s="12">
-        <v>0</v>
-      </c>
-      <c r="J65" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="3"/>
-      <c r="C66" s="11" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="J65" s="11">
+        <v>0</v>
+      </c>
+      <c r="K65" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B66" s="5"/>
+      <c r="C66" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="D66" s="12">
         <v>3.3</v>
       </c>
       <c r="E66" s="12">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="F66" s="12">
-        <v>-2</v>
-      </c>
-      <c r="G66" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G66" s="10">
+        <v>389.4</v>
       </c>
       <c r="H66" s="12">
         <v>9</v>
@@ -2780,26 +2994,29 @@
       <c r="I66" s="12">
         <v>0</v>
       </c>
-      <c r="J66" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="3"/>
-      <c r="C67" s="11" t="s">
-        <v>75</v>
+      <c r="J66" s="11">
+        <v>1</v>
+      </c>
+      <c r="K66" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B67" s="5"/>
+      <c r="C67" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="D67" s="12">
         <v>1.75</v>
       </c>
       <c r="E67" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" s="12">
         <v>1</v>
       </c>
-      <c r="G67" s="12">
-        <v>1</v>
+      <c r="G67" s="10">
+        <v>102.35</v>
       </c>
       <c r="H67" s="12">
         <v>10</v>
@@ -2807,26 +3024,29 @@
       <c r="I67" s="12">
         <v>0</v>
       </c>
-      <c r="J67" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="3"/>
-      <c r="C68" s="11" t="s">
-        <v>76</v>
+      <c r="J67" s="11">
+        <v>0</v>
+      </c>
+      <c r="K67" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B68" s="5"/>
+      <c r="C68" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D68" s="12">
         <v>5</v>
       </c>
       <c r="E68" s="12">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F68" s="12">
-        <v>-1</v>
-      </c>
-      <c r="G68" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G68" s="10">
+        <v>83.4</v>
       </c>
       <c r="H68" s="12">
         <v>12</v>
@@ -2834,26 +3054,29 @@
       <c r="I68" s="12">
         <v>0</v>
       </c>
-      <c r="J68" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="3"/>
-      <c r="C69" s="11" t="s">
-        <v>77</v>
+      <c r="J68" s="11">
+        <v>0</v>
+      </c>
+      <c r="K68" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B69" s="5"/>
+      <c r="C69" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D69" s="12">
         <v>3.2</v>
       </c>
       <c r="E69" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" s="12">
-        <v>5</v>
-      </c>
-      <c r="G69" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G69" s="10">
+        <v>81.599999999999994</v>
       </c>
       <c r="H69" s="12">
         <v>5</v>
@@ -2864,23 +3087,26 @@
       <c r="J69" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="3"/>
-      <c r="C70" s="11" t="s">
-        <v>78</v>
+      <c r="K69" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B70" s="5"/>
+      <c r="C70" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D70" s="12">
         <v>2.7</v>
       </c>
       <c r="E70" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F70" s="12">
-        <v>2</v>
-      </c>
-      <c r="G70" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G70" s="10">
+        <v>271.05</v>
       </c>
       <c r="H70" s="12">
         <v>7</v>
@@ -2891,50 +3117,56 @@
       <c r="J70" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="3"/>
-      <c r="C71" s="11" t="s">
-        <v>79</v>
+      <c r="K70" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B71" s="5"/>
+      <c r="C71" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D71" s="12">
         <v>5</v>
       </c>
       <c r="E71" s="12">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="F71" s="12">
-        <v>-6</v>
-      </c>
-      <c r="G71" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G71" s="10">
+        <v>131.69999999999999</v>
       </c>
       <c r="H71" s="12">
         <v>8</v>
       </c>
       <c r="I71" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="3"/>
-      <c r="C72" s="11" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="K71" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B72" s="5"/>
+      <c r="C72" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D72" s="12">
         <v>2.8</v>
       </c>
       <c r="E72" s="12">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="F72" s="12">
-        <v>-2</v>
-      </c>
-      <c r="G72" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G72" s="10">
+        <v>59.7</v>
       </c>
       <c r="H72" s="12">
         <v>9</v>
@@ -2945,50 +3177,56 @@
       <c r="J72" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="3"/>
-      <c r="C73" s="11" t="s">
-        <v>81</v>
+      <c r="K72" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B73" s="5"/>
+      <c r="C73" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="D73" s="12">
         <v>1.57</v>
       </c>
       <c r="E73" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F73" s="12">
-        <v>8</v>
-      </c>
-      <c r="G73" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G73" s="10">
+        <v>131.44999999999999</v>
       </c>
       <c r="H73" s="12">
         <v>7</v>
       </c>
       <c r="I73" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="3"/>
-      <c r="C74" s="11" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="K73" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B74" s="5"/>
+      <c r="C74" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D74" s="12">
         <v>2.4</v>
       </c>
       <c r="E74" s="12">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="F74" s="12">
-        <v>-5</v>
-      </c>
-      <c r="G74" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G74" s="10">
+        <v>76.599999999999994</v>
       </c>
       <c r="H74" s="12">
         <v>6</v>
@@ -2999,23 +3237,26 @@
       <c r="J74" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="3"/>
-      <c r="C75" s="11" t="s">
-        <v>83</v>
+      <c r="K74" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B75" s="5"/>
+      <c r="C75" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="D75" s="12">
         <v>2</v>
       </c>
       <c r="E75" s="12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F75" s="12">
-        <v>8</v>
-      </c>
-      <c r="G75" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G75" s="10">
+        <v>120.75</v>
       </c>
       <c r="H75" s="12">
         <v>6</v>
@@ -3026,23 +3267,26 @@
       <c r="J75" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="3"/>
-      <c r="C76" s="11" t="s">
-        <v>84</v>
+      <c r="K75" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B76" s="5"/>
+      <c r="C76" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D76" s="12">
         <v>5</v>
       </c>
       <c r="E76" s="12">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F76" s="12">
-        <v>6</v>
-      </c>
-      <c r="G76" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G76" s="10">
+        <v>72.45</v>
       </c>
       <c r="H76" s="12">
         <v>8</v>
@@ -3053,23 +3297,26 @@
       <c r="J76" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="3"/>
-      <c r="C77" s="11" t="s">
-        <v>85</v>
+      <c r="K76" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B77" s="5"/>
+      <c r="C77" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D77" s="12">
         <v>2.2999999999999998</v>
       </c>
       <c r="E77" s="12">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F77" s="12">
-        <v>3</v>
-      </c>
-      <c r="G77" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G77" s="10">
+        <v>98.55</v>
       </c>
       <c r="H77" s="12">
         <v>4</v>
@@ -3080,23 +3327,26 @@
       <c r="J77" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="3"/>
-      <c r="C78" s="11" t="s">
-        <v>86</v>
+      <c r="K77" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B78" s="5"/>
+      <c r="C78" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D78" s="12">
         <v>1.95</v>
       </c>
       <c r="E78" s="12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F78" s="12">
         <v>1</v>
       </c>
-      <c r="G78" s="12">
-        <v>1</v>
+      <c r="G78" s="10">
+        <v>58</v>
       </c>
       <c r="H78" s="12">
         <v>5</v>
@@ -3107,23 +3357,26 @@
       <c r="J78" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="3"/>
-      <c r="C79" s="11" t="s">
-        <v>87</v>
+      <c r="K78" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B79" s="5"/>
+      <c r="C79" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="D79" s="12">
         <v>4.2</v>
       </c>
       <c r="E79" s="12">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="F79" s="12">
-        <v>-1</v>
-      </c>
-      <c r="G79" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G79" s="10">
+        <v>73.05</v>
       </c>
       <c r="H79" s="12">
         <v>4</v>
@@ -3134,23 +3387,26 @@
       <c r="J79" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="3"/>
-      <c r="C80" s="11" t="s">
-        <v>88</v>
+      <c r="K79" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B80" s="5"/>
+      <c r="C80" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D80" s="12">
         <v>3.4</v>
       </c>
       <c r="E80" s="12">
-        <v>17</v>
+        <v>-3</v>
       </c>
       <c r="F80" s="12">
-        <v>-3</v>
-      </c>
-      <c r="G80" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G80" s="10">
+        <v>26.2</v>
       </c>
       <c r="H80" s="12">
         <v>4</v>
@@ -3161,50 +3417,56 @@
       <c r="J80" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="3"/>
-      <c r="C81" s="11" t="s">
-        <v>89</v>
+      <c r="K80" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B81" s="5"/>
+      <c r="C81" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="D81" s="12">
         <v>6</v>
       </c>
       <c r="E81" s="12">
-        <v>18</v>
+        <v>-8</v>
       </c>
       <c r="F81" s="12">
-        <v>-8</v>
-      </c>
-      <c r="G81" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G81" s="10">
+        <v>62.2</v>
       </c>
       <c r="H81" s="12">
         <v>2</v>
       </c>
       <c r="I81" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="3"/>
-      <c r="C82" s="11" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="K81" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B82" s="5"/>
+      <c r="C82" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="D82" s="12">
         <v>1.66</v>
       </c>
       <c r="E82" s="12">
-        <v>19</v>
+        <v>-6</v>
       </c>
       <c r="F82" s="12">
-        <v>-6</v>
-      </c>
-      <c r="G82" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G82" s="10">
+        <v>304.85000000000002</v>
       </c>
       <c r="H82" s="12">
         <v>2</v>
@@ -3215,23 +3477,26 @@
       <c r="J82" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="3"/>
-      <c r="C83" s="11" t="s">
-        <v>91</v>
+      <c r="K82" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B83" s="5"/>
+      <c r="C83" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="D83" s="12">
         <v>3.75</v>
       </c>
       <c r="E83" s="12">
-        <v>20</v>
+        <v>-8</v>
       </c>
       <c r="F83" s="12">
-        <v>-8</v>
-      </c>
-      <c r="G83" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G83" s="10">
+        <v>30.35</v>
       </c>
       <c r="H83" s="12">
         <v>6</v>
@@ -3242,52 +3507,58 @@
       <c r="J83" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="11" t="s">
+      <c r="K83" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B84" s="5" t="s">
         <v>93</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D84" s="12">
         <v>1.3</v>
       </c>
       <c r="E84" s="12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F84" s="12">
-        <v>11</v>
-      </c>
-      <c r="G84" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G84" s="10">
+        <v>912.65</v>
       </c>
       <c r="H84" s="12">
         <v>12</v>
       </c>
       <c r="I84" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="3"/>
-      <c r="C85" s="11" t="s">
-        <v>94</v>
+      <c r="K84" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B85" s="5"/>
+      <c r="C85" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D85" s="12">
         <v>2.4500000000000002</v>
       </c>
       <c r="E85" s="12">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F85" s="12">
-        <v>18</v>
-      </c>
-      <c r="G85" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G85" s="10">
+        <v>150.25</v>
       </c>
       <c r="H85" s="12">
         <v>12</v>
@@ -3298,23 +3569,26 @@
       <c r="J85" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="3"/>
-      <c r="C86" s="11" t="s">
-        <v>95</v>
+      <c r="K85" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B86" s="5"/>
+      <c r="C86" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D86" s="12">
         <v>1.45</v>
       </c>
       <c r="E86" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F86" s="12">
-        <v>6</v>
-      </c>
-      <c r="G86" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G86" s="10">
+        <v>389.4</v>
       </c>
       <c r="H86" s="12">
         <v>11</v>
@@ -3325,23 +3599,26 @@
       <c r="J86" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="3"/>
-      <c r="C87" s="11" t="s">
-        <v>96</v>
+      <c r="K86" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B87" s="5"/>
+      <c r="C87" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="D87" s="12">
         <v>3.75</v>
       </c>
       <c r="E87" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F87" s="12">
-        <v>6</v>
-      </c>
-      <c r="G87" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G87" s="10">
+        <v>102.35</v>
       </c>
       <c r="H87" s="12">
         <v>10</v>
@@ -3352,23 +3629,26 @@
       <c r="J87" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="3"/>
-      <c r="C88" s="11" t="s">
-        <v>97</v>
+      <c r="K87" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B88" s="5"/>
+      <c r="C88" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="D88" s="12">
         <v>2.2999999999999998</v>
       </c>
       <c r="E88" s="12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F88" s="12">
-        <v>13</v>
-      </c>
-      <c r="G88" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G88" s="10">
+        <v>81.599999999999994</v>
       </c>
       <c r="H88" s="12">
         <v>6</v>
@@ -3379,23 +3659,26 @@
       <c r="J88" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="3"/>
-      <c r="C89" s="11" t="s">
-        <v>98</v>
+      <c r="K88" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B89" s="5"/>
+      <c r="C89" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="D89" s="12">
         <v>1.9</v>
       </c>
       <c r="E89" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F89" s="12">
-        <v>8</v>
-      </c>
-      <c r="G89" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G89" s="10">
+        <v>83.4</v>
       </c>
       <c r="H89" s="12">
         <v>12</v>
@@ -3406,23 +3689,26 @@
       <c r="J89" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="3"/>
-      <c r="C90" s="11" t="s">
-        <v>99</v>
+      <c r="K89" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B90" s="5"/>
+      <c r="C90" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D90" s="12">
         <v>1.8</v>
       </c>
       <c r="E90" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F90" s="12">
-        <v>9</v>
-      </c>
-      <c r="G90" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G90" s="10">
+        <v>271.05</v>
       </c>
       <c r="H90" s="12">
         <v>6</v>
@@ -3433,23 +3719,26 @@
       <c r="J90" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="3"/>
-      <c r="C91" s="11" t="s">
-        <v>100</v>
+      <c r="K90" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B91" s="5"/>
+      <c r="C91" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D91" s="12">
         <v>3</v>
       </c>
       <c r="E91" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" s="12">
-        <v>7</v>
-      </c>
-      <c r="G91" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="10">
+        <v>59.7</v>
       </c>
       <c r="H91" s="12">
         <v>9</v>
@@ -3460,23 +3749,26 @@
       <c r="J91" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="3"/>
-      <c r="C92" s="11" t="s">
-        <v>101</v>
+      <c r="K91" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B92" s="5"/>
+      <c r="C92" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="D92" s="12">
         <v>7</v>
       </c>
       <c r="E92" s="12">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="F92" s="12">
-        <v>-6</v>
-      </c>
-      <c r="G92" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G92" s="10">
+        <v>131.69999999999999</v>
       </c>
       <c r="H92" s="12">
         <v>8</v>
@@ -3487,23 +3779,26 @@
       <c r="J92" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="3"/>
-      <c r="C93" s="11" t="s">
-        <v>102</v>
+      <c r="K92" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B93" s="5"/>
+      <c r="C93" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="D93" s="12">
         <v>2</v>
       </c>
       <c r="E93" s="12">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="F93" s="12">
-        <v>-6</v>
-      </c>
-      <c r="G93" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G93" s="10">
+        <v>131.44999999999999</v>
       </c>
       <c r="H93" s="12">
         <v>7</v>
@@ -3514,50 +3809,56 @@
       <c r="J93" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="3"/>
-      <c r="C94" s="11" t="s">
-        <v>103</v>
+      <c r="K93" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B94" s="5"/>
+      <c r="C94" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="D94" s="12">
         <v>4.75</v>
       </c>
       <c r="E94" s="12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F94" s="12">
-        <v>2</v>
-      </c>
-      <c r="G94" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G94" s="10">
+        <v>76.599999999999994</v>
       </c>
       <c r="H94" s="12">
         <v>7</v>
       </c>
       <c r="I94" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="3"/>
-      <c r="C95" s="11" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="K94" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B95" s="5"/>
+      <c r="C95" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D95" s="12">
         <v>9</v>
       </c>
       <c r="E95" s="12">
-        <v>12</v>
+        <v>-11</v>
       </c>
       <c r="F95" s="12">
-        <v>-11</v>
-      </c>
-      <c r="G95" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G95" s="10">
+        <v>120.75</v>
       </c>
       <c r="H95" s="12">
         <v>7</v>
@@ -3566,52 +3867,58 @@
         <v>0</v>
       </c>
       <c r="J95" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B96" s="3"/>
-      <c r="C96" s="11" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="K95" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B96" s="5"/>
+      <c r="C96" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="D96" s="12">
         <v>1.75</v>
       </c>
       <c r="E96" s="12">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="F96" s="12">
-        <v>-2</v>
-      </c>
-      <c r="G96" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G96" s="10">
+        <v>98.55</v>
       </c>
       <c r="H96" s="12">
         <v>4</v>
       </c>
       <c r="I96" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="3"/>
-      <c r="C97" s="11" t="s">
-        <v>106</v>
+        <v>0</v>
+      </c>
+      <c r="K96" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B97" s="5"/>
+      <c r="C97" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="D97" s="12">
         <v>4.75</v>
       </c>
       <c r="E97" s="12">
-        <v>14</v>
+        <v>-8</v>
       </c>
       <c r="F97" s="12">
-        <v>-8</v>
-      </c>
-      <c r="G97" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G97" s="10">
+        <v>58</v>
       </c>
       <c r="H97" s="12">
         <v>7</v>
@@ -3622,23 +3929,26 @@
       <c r="J97" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="3"/>
-      <c r="C98" s="11" t="s">
-        <v>107</v>
+      <c r="K97" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B98" s="5"/>
+      <c r="C98" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D98" s="12">
         <v>2.5</v>
       </c>
       <c r="E98" s="12">
-        <v>15</v>
+        <v>-7</v>
       </c>
       <c r="F98" s="12">
-        <v>-7</v>
-      </c>
-      <c r="G98" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G98" s="10">
+        <v>72.45</v>
       </c>
       <c r="H98" s="12">
         <v>5</v>
@@ -3649,23 +3959,26 @@
       <c r="J98" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="3"/>
-      <c r="C99" s="11" t="s">
-        <v>108</v>
+      <c r="K98" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B99" s="5"/>
+      <c r="C99" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D99" s="12">
         <v>4.75</v>
       </c>
       <c r="E99" s="12">
-        <v>16</v>
+        <v>-9</v>
       </c>
       <c r="F99" s="12">
-        <v>-9</v>
-      </c>
-      <c r="G99" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G99" s="10">
+        <v>73.05</v>
       </c>
       <c r="H99" s="12">
         <v>4</v>
@@ -3676,50 +3989,56 @@
       <c r="J99" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="3"/>
-      <c r="C100" s="11" t="s">
-        <v>109</v>
+      <c r="K99" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B100" s="5"/>
+      <c r="C100" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D100" s="12">
         <v>3.8</v>
       </c>
       <c r="E100" s="12">
+        <v>2</v>
+      </c>
+      <c r="F100" s="12">
+        <v>0</v>
+      </c>
+      <c r="G100" s="10">
+        <v>26.2</v>
+      </c>
+      <c r="H100" s="12">
+        <v>1</v>
+      </c>
+      <c r="I100" s="12">
+        <v>0</v>
+      </c>
+      <c r="J100" s="13">
+        <v>1</v>
+      </c>
+      <c r="K100" s="13">
         <v>17</v>
       </c>
-      <c r="F100" s="12">
-        <v>2</v>
-      </c>
-      <c r="G100" s="12">
-        <v>0</v>
-      </c>
-      <c r="H100" s="12">
-        <v>1</v>
-      </c>
-      <c r="I100" s="12">
-        <v>1</v>
-      </c>
-      <c r="J100" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="3"/>
-      <c r="C101" s="11" t="s">
-        <v>110</v>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B101" s="5"/>
+      <c r="C101" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="D101" s="12">
         <v>3.3</v>
       </c>
       <c r="E101" s="12">
-        <v>18</v>
+        <v>-13</v>
       </c>
       <c r="F101" s="12">
-        <v>-13</v>
-      </c>
-      <c r="G101" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G101" s="10">
+        <v>304.85000000000002</v>
       </c>
       <c r="H101" s="12">
         <v>5</v>
@@ -3730,50 +4049,56 @@
       <c r="J101" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="3"/>
-      <c r="C102" s="11" t="s">
-        <v>111</v>
+      <c r="K101" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B102" s="5"/>
+      <c r="C102" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D102" s="12">
         <v>2.2999999999999998</v>
       </c>
       <c r="E102" s="12">
+        <v>-2</v>
+      </c>
+      <c r="F102" s="12">
+        <v>1</v>
+      </c>
+      <c r="G102" s="10">
+        <v>62.2</v>
+      </c>
+      <c r="H102" s="12">
+        <v>1</v>
+      </c>
+      <c r="I102" s="12">
+        <v>1</v>
+      </c>
+      <c r="J102" s="13">
+        <v>0</v>
+      </c>
+      <c r="K102" s="13">
         <v>19</v>
       </c>
-      <c r="F102" s="12">
-        <v>-2</v>
-      </c>
-      <c r="G102" s="12">
-        <v>1</v>
-      </c>
-      <c r="H102" s="12">
-        <v>1</v>
-      </c>
-      <c r="I102" s="12">
-        <v>0</v>
-      </c>
-      <c r="J102" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="3"/>
-      <c r="C103" s="11" t="s">
-        <v>112</v>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B103" s="5"/>
+      <c r="C103" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="D103" s="12">
         <v>2.9</v>
       </c>
       <c r="E103" s="12">
-        <v>20</v>
+        <v>-18</v>
       </c>
       <c r="F103" s="12">
-        <v>-18</v>
-      </c>
-      <c r="G103" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G103" s="10">
+        <v>30.35</v>
       </c>
       <c r="H103" s="12">
         <v>4</v>
@@ -3784,25 +4109,28 @@
       <c r="J103" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C104" s="11" t="s">
+      <c r="K103" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B104" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>115</v>
       </c>
       <c r="D104" s="12">
         <v>1.5</v>
       </c>
       <c r="E104" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F104" s="12">
-        <v>3</v>
-      </c>
-      <c r="G104" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G104" s="10">
+        <v>912.65</v>
       </c>
       <c r="H104" s="12">
         <v>12</v>
@@ -3813,23 +4141,26 @@
       <c r="J104" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="3"/>
-      <c r="C105" s="11" t="s">
+      <c r="K104" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B105" s="5"/>
+      <c r="C105" s="9" t="s">
         <v>116</v>
       </c>
       <c r="D105" s="12">
         <v>1.85</v>
       </c>
       <c r="E105" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105" s="12">
-        <v>3</v>
-      </c>
-      <c r="G105" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G105" s="10">
+        <v>150.25</v>
       </c>
       <c r="H105" s="12">
         <v>15</v>
@@ -3840,23 +4171,26 @@
       <c r="J105" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="3"/>
-      <c r="C106" s="11" t="s">
+      <c r="K105" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B106" s="5"/>
+      <c r="C106" s="9" t="s">
         <v>117</v>
       </c>
       <c r="D106" s="12">
         <v>1.25</v>
       </c>
       <c r="E106" s="12">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F106" s="12">
-        <v>17</v>
-      </c>
-      <c r="G106" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G106" s="10">
+        <v>389.4</v>
       </c>
       <c r="H106" s="12">
         <v>10</v>
@@ -3867,23 +4201,26 @@
       <c r="J106" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="3"/>
-      <c r="C107" s="11" t="s">
+      <c r="K106" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B107" s="5"/>
+      <c r="C107" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D107" s="12">
         <v>6</v>
       </c>
       <c r="E107" s="12">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F107" s="12">
-        <v>-4</v>
-      </c>
-      <c r="G107" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G107" s="10">
+        <v>102.35</v>
       </c>
       <c r="H107" s="12">
         <v>7</v>
@@ -3894,23 +4231,26 @@
       <c r="J107" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="3"/>
-      <c r="C108" s="11" t="s">
+      <c r="K107" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B108" s="5"/>
+      <c r="C108" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D108" s="12">
         <v>4.75</v>
       </c>
       <c r="E108" s="12">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="F108" s="12">
-        <v>-3</v>
-      </c>
-      <c r="G108" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G108" s="10">
+        <v>81.599999999999994</v>
       </c>
       <c r="H108" s="12">
         <v>6</v>
@@ -3921,23 +4261,26 @@
       <c r="J108" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="3"/>
-      <c r="C109" s="11" t="s">
+      <c r="K108" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B109" s="5"/>
+      <c r="C109" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D109" s="12">
         <v>1.45</v>
       </c>
       <c r="E109" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F109" s="12">
-        <v>10</v>
-      </c>
-      <c r="G109" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G109" s="10">
+        <v>271.05</v>
       </c>
       <c r="H109" s="12">
         <v>9</v>
@@ -3948,23 +4291,26 @@
       <c r="J109" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="3"/>
-      <c r="C110" s="11" t="s">
+      <c r="K109" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B110" s="5"/>
+      <c r="C110" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D110" s="12">
         <v>4.5</v>
       </c>
       <c r="E110" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F110" s="12">
-        <v>5</v>
-      </c>
-      <c r="G110" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G110" s="10">
+        <v>131.69999999999999</v>
       </c>
       <c r="H110" s="12">
         <v>8</v>
@@ -3975,23 +4321,26 @@
       <c r="J110" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="3"/>
-      <c r="C111" s="11" t="s">
+      <c r="K110" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B111" s="5"/>
+      <c r="C111" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D111" s="12">
         <v>3.2</v>
       </c>
       <c r="E111" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F111" s="12">
-        <v>2</v>
-      </c>
-      <c r="G111" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G111" s="10">
+        <v>131.44999999999999</v>
       </c>
       <c r="H111" s="12">
         <v>7</v>
@@ -4002,23 +4351,26 @@
       <c r="J111" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="3"/>
-      <c r="C112" s="11" t="s">
+      <c r="K111" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B112" s="5"/>
+      <c r="C112" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D112" s="12">
         <v>2.5</v>
       </c>
       <c r="E112" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F112" s="12">
-        <v>10</v>
-      </c>
-      <c r="G112" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G112" s="10">
+        <v>83.4</v>
       </c>
       <c r="H112" s="12">
         <v>9</v>
@@ -4029,23 +4381,26 @@
       <c r="J112" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="3"/>
-      <c r="C113" s="11" t="s">
+      <c r="K112" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B113" s="5"/>
+      <c r="C113" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D113" s="12">
         <v>2.5</v>
       </c>
       <c r="E113" s="12">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="F113" s="12">
-        <v>-2</v>
-      </c>
-      <c r="G113" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G113" s="10">
+        <v>59.7</v>
       </c>
       <c r="H113" s="12">
         <v>9</v>
@@ -4056,23 +4411,26 @@
       <c r="J113" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="3"/>
-      <c r="C114" s="11" t="s">
+      <c r="K113" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B114" s="5"/>
+      <c r="C114" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D114" s="12">
         <v>1.95</v>
       </c>
       <c r="E114" s="12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F114" s="12">
-        <v>6</v>
-      </c>
-      <c r="G114" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G114" s="10">
+        <v>76.599999999999994</v>
       </c>
       <c r="H114" s="12">
         <v>7</v>
@@ -4083,23 +4441,26 @@
       <c r="J114" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="3"/>
-      <c r="C115" s="11" t="s">
+      <c r="K114" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B115" s="5"/>
+      <c r="C115" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D115" s="12">
         <v>2</v>
       </c>
       <c r="E115" s="12">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="F115" s="12">
-        <v>-5</v>
-      </c>
-      <c r="G115" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G115" s="10">
+        <v>58</v>
       </c>
       <c r="H115" s="12">
         <v>10</v>
@@ -4110,23 +4471,26 @@
       <c r="J115" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="3"/>
-      <c r="C116" s="11" t="s">
+      <c r="K115" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B116" s="5"/>
+      <c r="C116" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D116" s="12">
         <v>2.0499999999999998</v>
       </c>
       <c r="E116" s="12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F116" s="12">
-        <v>2</v>
-      </c>
-      <c r="G116" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G116" s="10">
+        <v>120.75</v>
       </c>
       <c r="H116" s="12">
         <v>4</v>
@@ -4137,23 +4501,26 @@
       <c r="J116" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="3"/>
-      <c r="C117" s="11" t="s">
+      <c r="K116" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B117" s="5"/>
+      <c r="C117" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D117" s="12">
         <v>4.75</v>
       </c>
       <c r="E117" s="12">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F117" s="12">
-        <v>4</v>
-      </c>
-      <c r="G117" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G117" s="10">
+        <v>98.55</v>
       </c>
       <c r="H117" s="12">
         <v>4</v>
@@ -4164,23 +4531,26 @@
       <c r="J117" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="3"/>
-      <c r="C118" s="11" t="s">
+      <c r="K117" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B118" s="5"/>
+      <c r="C118" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D118" s="12">
         <v>4</v>
       </c>
       <c r="E118" s="12">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="F118" s="12">
-        <v>-2</v>
-      </c>
-      <c r="G118" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G118" s="10">
+        <v>72.45</v>
       </c>
       <c r="H118" s="12">
         <v>6</v>
@@ -4191,23 +4561,26 @@
       <c r="J118" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B119" s="3"/>
-      <c r="C119" s="11" t="s">
+      <c r="K118" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B119" s="5"/>
+      <c r="C119" s="9" t="s">
         <v>130</v>
       </c>
       <c r="D119" s="12">
         <v>9</v>
       </c>
       <c r="E119" s="12">
-        <v>16</v>
+        <v>-10</v>
       </c>
       <c r="F119" s="12">
-        <v>-10</v>
-      </c>
-      <c r="G119" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G119" s="10">
+        <v>62.2</v>
       </c>
       <c r="H119" s="12">
         <v>3</v>
@@ -4218,23 +4591,26 @@
       <c r="J119" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B120" s="3"/>
-      <c r="C120" s="11" t="s">
+      <c r="K119" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B120" s="5"/>
+      <c r="C120" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D120" s="12">
         <v>3.8</v>
       </c>
       <c r="E120" s="12">
-        <v>17</v>
+        <v>-6</v>
       </c>
       <c r="F120" s="12">
-        <v>-6</v>
-      </c>
-      <c r="G120" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G120" s="10">
+        <v>73.05</v>
       </c>
       <c r="H120" s="12">
         <v>3</v>
@@ -4245,23 +4621,26 @@
       <c r="J120" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="3"/>
-      <c r="C121" s="11" t="s">
+      <c r="K120" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B121" s="5"/>
+      <c r="C121" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D121" s="12">
         <v>1.75</v>
       </c>
       <c r="E121" s="12">
-        <v>18</v>
+        <v>-4</v>
       </c>
       <c r="F121" s="12">
-        <v>-4</v>
-      </c>
-      <c r="G121" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G121" s="10">
+        <v>304.85000000000002</v>
       </c>
       <c r="H121" s="12">
         <v>5</v>
@@ -4272,50 +4651,56 @@
       <c r="J121" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="3"/>
-      <c r="C122" s="11" t="s">
+      <c r="K121" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B122" s="5"/>
+      <c r="C122" s="9" t="s">
         <v>133</v>
       </c>
       <c r="D122" s="12">
         <v>3.2</v>
       </c>
       <c r="E122" s="12">
+        <v>-10</v>
+      </c>
+      <c r="F122" s="12">
+        <v>1</v>
+      </c>
+      <c r="G122" s="10">
+        <v>26.2</v>
+      </c>
+      <c r="H122" s="12">
+        <v>0</v>
+      </c>
+      <c r="I122" s="12">
+        <v>0</v>
+      </c>
+      <c r="J122" s="13">
+        <v>0</v>
+      </c>
+      <c r="K122" s="13">
         <v>19</v>
       </c>
-      <c r="F122" s="12">
-        <v>-10</v>
-      </c>
-      <c r="G122" s="12">
-        <v>1</v>
-      </c>
-      <c r="H122" s="12">
-        <v>0</v>
-      </c>
-      <c r="I122" s="12">
-        <v>0</v>
-      </c>
-      <c r="J122" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="3"/>
-      <c r="C123" s="11" t="s">
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B123" s="5"/>
+      <c r="C123" s="9" t="s">
         <v>134</v>
       </c>
       <c r="D123" s="12">
         <v>13</v>
       </c>
       <c r="E123" s="12">
-        <v>20</v>
+        <v>-17</v>
       </c>
       <c r="F123" s="12">
-        <v>-17</v>
-      </c>
-      <c r="G123" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G123" s="10">
+        <v>30.35</v>
       </c>
       <c r="H123" s="12">
         <v>4</v>
@@ -4326,25 +4711,28 @@
       <c r="J123" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C124" s="11" t="s">
+      <c r="K123" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B124" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>136</v>
       </c>
       <c r="D124" s="12">
         <v>1.2</v>
       </c>
       <c r="E124" s="12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F124" s="12">
-        <v>9</v>
-      </c>
-      <c r="G124" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G124" s="10">
+        <v>912.65</v>
       </c>
       <c r="H124" s="12">
         <v>12</v>
@@ -4355,23 +4743,26 @@
       <c r="J124" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="3"/>
-      <c r="C125" s="11" t="s">
+      <c r="K124" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B125" s="5"/>
+      <c r="C125" s="9" t="s">
         <v>137</v>
       </c>
       <c r="D125" s="12">
         <v>2.6</v>
       </c>
       <c r="E125" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F125" s="12">
-        <v>7</v>
-      </c>
-      <c r="G125" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G125" s="10">
+        <v>150.25</v>
       </c>
       <c r="H125" s="12">
         <v>13</v>
@@ -4382,23 +4773,26 @@
       <c r="J125" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="3"/>
-      <c r="C126" s="11" t="s">
+      <c r="K125" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B126" s="5"/>
+      <c r="C126" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D126" s="12">
         <v>2.37</v>
       </c>
       <c r="E126" s="12">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F126" s="12">
-        <v>13</v>
-      </c>
-      <c r="G126" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G126" s="10">
+        <v>389.4</v>
       </c>
       <c r="H126" s="12">
         <v>12</v>
@@ -4409,23 +4803,26 @@
       <c r="J126" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="3"/>
-      <c r="C127" s="11" t="s">
+      <c r="K126" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B127" s="5"/>
+      <c r="C127" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D127" s="12">
         <v>2.6</v>
       </c>
       <c r="E127" s="12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F127" s="12">
-        <v>7</v>
-      </c>
-      <c r="G127" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G127" s="10">
+        <v>271.05</v>
       </c>
       <c r="H127" s="12">
         <v>9</v>
@@ -4436,23 +4833,26 @@
       <c r="J127" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="3"/>
-      <c r="C128" s="11" t="s">
+      <c r="K127" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B128" s="5"/>
+      <c r="C128" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D128" s="12">
         <v>2.25</v>
       </c>
       <c r="E128" s="12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F128" s="12">
-        <v>13</v>
-      </c>
-      <c r="G128" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G128" s="10">
+        <v>102.35</v>
       </c>
       <c r="H128" s="12">
         <v>4</v>
@@ -4463,23 +4863,26 @@
       <c r="J128" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="3"/>
-      <c r="C129" s="11" t="s">
+      <c r="K128" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B129" s="5"/>
+      <c r="C129" s="9" t="s">
         <v>141</v>
       </c>
       <c r="D129" s="12">
         <v>2.0499999999999998</v>
       </c>
       <c r="E129" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F129" s="12">
         <v>1</v>
       </c>
-      <c r="G129" s="12">
-        <v>1</v>
+      <c r="G129" s="10">
+        <v>81.599999999999994</v>
       </c>
       <c r="H129" s="12">
         <v>6</v>
@@ -4490,23 +4893,26 @@
       <c r="J129" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="3"/>
-      <c r="C130" s="11" t="s">
+      <c r="K129" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B130" s="5"/>
+      <c r="C130" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D130" s="12">
         <v>4.2</v>
       </c>
       <c r="E130" s="12">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="F130" s="12">
-        <v>-1</v>
-      </c>
-      <c r="G130" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G130" s="10">
+        <v>59.7</v>
       </c>
       <c r="H130" s="12">
         <v>11</v>
@@ -4517,23 +4923,26 @@
       <c r="J130" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="3"/>
-      <c r="C131" s="11" t="s">
+      <c r="K130" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B131" s="5"/>
+      <c r="C131" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D131" s="12">
         <v>3</v>
       </c>
       <c r="E131" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F131" s="12">
-        <v>9</v>
-      </c>
-      <c r="G131" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G131" s="10">
+        <v>131.69999999999999</v>
       </c>
       <c r="H131" s="12">
         <v>7</v>
@@ -4544,23 +4953,26 @@
       <c r="J131" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="3"/>
-      <c r="C132" s="11" t="s">
+      <c r="K131" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B132" s="5"/>
+      <c r="C132" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D132" s="12">
         <v>2.9</v>
       </c>
       <c r="E132" s="12">
-        <v>9</v>
+        <v>-7</v>
       </c>
       <c r="F132" s="12">
-        <v>-7</v>
-      </c>
-      <c r="G132" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G132" s="10">
+        <v>83.4</v>
       </c>
       <c r="H132" s="12">
         <v>7</v>
@@ -4571,23 +4983,26 @@
       <c r="J132" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="3"/>
-      <c r="C133" s="11" t="s">
+      <c r="K132" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B133" s="5"/>
+      <c r="C133" s="9" t="s">
         <v>145</v>
       </c>
       <c r="D133" s="12">
         <v>13</v>
       </c>
       <c r="E133" s="12">
-        <v>10</v>
+        <v>-9</v>
       </c>
       <c r="F133" s="12">
-        <v>-9</v>
-      </c>
-      <c r="G133" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G133" s="10">
+        <v>76.599999999999994</v>
       </c>
       <c r="H133" s="12">
         <v>10</v>
@@ -4598,23 +5013,26 @@
       <c r="J133" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="3"/>
-      <c r="C134" s="11" t="s">
+      <c r="K133" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B134" s="5"/>
+      <c r="C134" s="9" t="s">
         <v>146</v>
       </c>
       <c r="D134" s="12">
         <v>2.8</v>
       </c>
       <c r="E134" s="12">
-        <v>11</v>
+        <v>-7</v>
       </c>
       <c r="F134" s="12">
-        <v>-7</v>
-      </c>
-      <c r="G134" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G134" s="10">
+        <v>131.44999999999999</v>
       </c>
       <c r="H134" s="12">
         <v>7</v>
@@ -4625,23 +5043,26 @@
       <c r="J134" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="3"/>
-      <c r="C135" s="11" t="s">
+      <c r="K134" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B135" s="5"/>
+      <c r="C135" s="9" t="s">
         <v>147</v>
       </c>
       <c r="D135" s="12">
         <v>3</v>
       </c>
       <c r="E135" s="12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F135" s="12">
-        <v>8</v>
-      </c>
-      <c r="G135" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G135" s="10">
+        <v>58</v>
       </c>
       <c r="H135" s="12">
         <v>10</v>
@@ -4652,23 +5073,26 @@
       <c r="J135" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="3"/>
-      <c r="C136" s="11" t="s">
+      <c r="K135" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B136" s="5"/>
+      <c r="C136" s="9" t="s">
         <v>148</v>
       </c>
       <c r="D136" s="12">
         <v>3.75</v>
       </c>
       <c r="E136" s="12">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F136" s="12">
-        <v>1</v>
-      </c>
-      <c r="G136" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G136" s="10">
+        <v>120.75</v>
       </c>
       <c r="H136" s="12">
         <v>4</v>
@@ -4679,23 +5103,26 @@
       <c r="J136" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="3"/>
-      <c r="C137" s="11" t="s">
+      <c r="K136" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B137" s="5"/>
+      <c r="C137" s="9" t="s">
         <v>149</v>
       </c>
       <c r="D137" s="12">
         <v>2.1</v>
       </c>
       <c r="E137" s="12">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="F137" s="12">
-        <v>-1</v>
-      </c>
-      <c r="G137" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G137" s="10">
+        <v>98.55</v>
       </c>
       <c r="H137" s="12">
         <v>4</v>
@@ -4706,50 +5133,56 @@
       <c r="J137" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B138" s="3"/>
-      <c r="C138" s="11" t="s">
+      <c r="K137" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B138" s="5"/>
+      <c r="C138" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D138" s="12">
         <v>1.72</v>
       </c>
       <c r="E138" s="12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F138" s="12">
-        <v>4</v>
-      </c>
-      <c r="G138" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G138" s="10">
+        <v>72.45</v>
       </c>
       <c r="H138" s="12">
         <v>5</v>
       </c>
       <c r="I138" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B139" s="3"/>
-      <c r="C139" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K138" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B139" s="5"/>
+      <c r="C139" s="9" t="s">
         <v>151</v>
       </c>
       <c r="D139" s="12">
         <v>2.87</v>
       </c>
       <c r="E139" s="12">
-        <v>16</v>
+        <v>-13</v>
       </c>
       <c r="F139" s="12">
-        <v>-13</v>
-      </c>
-      <c r="G139" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G139" s="10">
+        <v>304.85000000000002</v>
       </c>
       <c r="H139" s="12">
         <v>7</v>
@@ -4760,23 +5193,26 @@
       <c r="J139" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B140" s="3"/>
-      <c r="C140" s="11" t="s">
+      <c r="K139" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B140" s="5"/>
+      <c r="C140" s="9" t="s">
         <v>152</v>
       </c>
       <c r="D140" s="12">
         <v>2.6</v>
       </c>
       <c r="E140" s="12">
-        <v>17</v>
+        <v>-9</v>
       </c>
       <c r="F140" s="12">
-        <v>-9</v>
-      </c>
-      <c r="G140" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G140" s="10">
+        <v>62.2</v>
       </c>
       <c r="H140" s="12">
         <v>3</v>
@@ -4787,23 +5223,26 @@
       <c r="J140" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="3"/>
-      <c r="C141" s="11" t="s">
+      <c r="K140" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B141" s="5"/>
+      <c r="C141" s="9" t="s">
         <v>153</v>
       </c>
       <c r="D141" s="12">
         <v>3.25</v>
       </c>
       <c r="E141" s="12">
-        <v>18</v>
+        <v>-13</v>
       </c>
       <c r="F141" s="12">
-        <v>-13</v>
-      </c>
-      <c r="G141" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G141" s="10">
+        <v>73.05</v>
       </c>
       <c r="H141" s="12">
         <v>3</v>
@@ -4814,36 +5253,42 @@
       <c r="J141" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="3"/>
-      <c r="C142" s="11" t="s">
+      <c r="K141" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B142" s="5"/>
+      <c r="C142" s="9" t="s">
         <v>154</v>
       </c>
       <c r="D142" s="12">
         <v>5</v>
       </c>
       <c r="E142" s="12">
+        <v>-4</v>
+      </c>
+      <c r="F142" s="12">
+        <v>0</v>
+      </c>
+      <c r="G142" s="10">
+        <v>26.2</v>
+      </c>
+      <c r="H142" s="12">
+        <v>1</v>
+      </c>
+      <c r="I142" s="12">
+        <v>0</v>
+      </c>
+      <c r="J142" s="13">
+        <v>1</v>
+      </c>
+      <c r="K142" s="13">
         <v>19</v>
       </c>
-      <c r="F142" s="12">
-        <v>-4</v>
-      </c>
-      <c r="G142" s="12">
-        <v>0</v>
-      </c>
-      <c r="H142" s="12">
-        <v>1</v>
-      </c>
-      <c r="I142" s="12">
-        <v>1</v>
-      </c>
-      <c r="J142" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="3"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B143" s="5"/>
       <c r="C143" s="14" t="s">
         <v>155</v>
       </c>
@@ -4851,37 +5296,166 @@
         <v>2.5</v>
       </c>
       <c r="E143" s="15">
+        <v>-8</v>
+      </c>
+      <c r="F143" s="15">
+        <v>1</v>
+      </c>
+      <c r="G143" s="16">
+        <v>30.35</v>
+      </c>
+      <c r="H143" s="15">
+        <v>1</v>
+      </c>
+      <c r="I143" s="15">
+        <v>1</v>
+      </c>
+      <c r="J143" s="17">
+        <v>0</v>
+      </c>
+      <c r="K143" s="17">
         <v>20</v>
-      </c>
-      <c r="F143" s="15">
-        <v>-8</v>
-      </c>
-      <c r="G143" s="15">
-        <v>1</v>
-      </c>
-      <c r="H143" s="15">
-        <v>1</v>
-      </c>
-      <c r="I143" s="15">
-        <v>1</v>
-      </c>
-      <c r="J143" s="16">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B104:B123"/>
     <mergeCell ref="B124:B143"/>
-    <mergeCell ref="B84:B103"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="B4:B23"/>
     <mergeCell ref="B24:B43"/>
     <mergeCell ref="B44:B63"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="B64:B83"/>
+    <mergeCell ref="B84:B103"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" tooltip="FC Paris Saint-Germain" display="https://www.transfermarkt.fr/fc-paris-saint-germain/kader/verein/583/saison_id/2018" xr:uid="{A25CB323-2696-4E9D-9AED-BB8F06867BD8}"/>
+    <hyperlink ref="G24" r:id="rId2" tooltip="FC Paris Saint-Germain" display="https://www.transfermarkt.fr/fc-paris-saint-germain/kader/verein/583/saison_id/2018" xr:uid="{BF4B71C2-18F2-4DAE-8FCA-FCEBEDF7D68A}"/>
+    <hyperlink ref="G44" r:id="rId3" tooltip="FC Paris Saint-Germain" display="https://www.transfermarkt.fr/fc-paris-saint-germain/kader/verein/583/saison_id/2018" xr:uid="{413E0FDA-4B84-4871-BDBE-E650D91D0047}"/>
+    <hyperlink ref="G64" r:id="rId4" tooltip="FC Paris Saint-Germain" display="https://www.transfermarkt.fr/fc-paris-saint-germain/kader/verein/583/saison_id/2018" xr:uid="{D8001A30-1788-4485-AA3A-9614A2BB4417}"/>
+    <hyperlink ref="G84" r:id="rId5" tooltip="FC Paris Saint-Germain" display="https://www.transfermarkt.fr/fc-paris-saint-germain/kader/verein/583/saison_id/2018" xr:uid="{3B09D78F-51AE-4BFD-BEB1-E4000218EBB2}"/>
+    <hyperlink ref="G104" r:id="rId6" tooltip="FC Paris Saint-Germain" display="https://www.transfermarkt.fr/fc-paris-saint-germain/kader/verein/583/saison_id/2018" xr:uid="{43C59020-F52D-43F4-A9DE-6869FBC45F85}"/>
+    <hyperlink ref="G124" r:id="rId7" tooltip="FC Paris Saint-Germain" display="https://www.transfermarkt.fr/fc-paris-saint-germain/kader/verein/583/saison_id/2018" xr:uid="{712B34B1-279D-44FF-BF66-C9237D78C543}"/>
+    <hyperlink ref="G8" r:id="rId8" tooltip="Olympique Lyonnais" display="https://www.transfermarkt.fr/olympique-lyon/kader/verein/1041/saison_id/2018" xr:uid="{A3F74ED2-74C7-43FF-BC2E-01D5E5B69FA7}"/>
+    <hyperlink ref="G27" r:id="rId9" tooltip="Olympique Lyonnais" display="https://www.transfermarkt.fr/olympique-lyon/kader/verein/1041/saison_id/2018" xr:uid="{85591D94-E350-4DD5-B867-A176450D8E6C}"/>
+    <hyperlink ref="G46" r:id="rId10" tooltip="Olympique Lyonnais" display="https://www.transfermarkt.fr/olympique-lyon/kader/verein/1041/saison_id/2018" xr:uid="{9A601CCE-7123-498C-A1DB-6855454CE3A4}"/>
+    <hyperlink ref="G66" r:id="rId11" tooltip="Olympique Lyonnais" display="https://www.transfermarkt.fr/olympique-lyon/kader/verein/1041/saison_id/2018" xr:uid="{3198F6B9-8241-4C9A-9EE7-BCF8D903A996}"/>
+    <hyperlink ref="G86" r:id="rId12" tooltip="Olympique Lyonnais" display="https://www.transfermarkt.fr/olympique-lyon/kader/verein/1041/saison_id/2018" xr:uid="{11A96274-416F-4C0D-AF0E-2D101E6EC837}"/>
+    <hyperlink ref="G106" r:id="rId13" tooltip="Olympique Lyonnais" display="https://www.transfermarkt.fr/olympique-lyon/kader/verein/1041/saison_id/2018" xr:uid="{C334A785-DC23-407B-B3BD-99CCDDAC87EF}"/>
+    <hyperlink ref="G126" r:id="rId14" tooltip="Olympique Lyonnais" display="https://www.transfermarkt.fr/olympique-lyon/kader/verein/1041/saison_id/2018" xr:uid="{51284ED4-3AA3-478A-A23C-188174CD02D6}"/>
+    <hyperlink ref="G21" r:id="rId15" tooltip="AS Monaco" display="https://www.transfermarkt.fr/as-monaco/kader/verein/162/saison_id/2018" xr:uid="{34CE7B4A-F7E9-4265-809E-BB324EADA75B}"/>
+    <hyperlink ref="G42" r:id="rId16" tooltip="AS Monaco" display="https://www.transfermarkt.fr/as-monaco/kader/verein/162/saison_id/2018" xr:uid="{731139E5-3DF1-4A9C-8934-A47F985DD6CA}"/>
+    <hyperlink ref="G62" r:id="rId17" tooltip="AS Monaco" display="https://www.transfermarkt.fr/as-monaco/kader/verein/162/saison_id/2018" xr:uid="{0BF52036-838B-4AB3-938D-4C0F5011C2EF}"/>
+    <hyperlink ref="G82" r:id="rId18" tooltip="AS Monaco" display="https://www.transfermarkt.fr/as-monaco/kader/verein/162/saison_id/2018" xr:uid="{D14E277B-C380-47CA-A4DA-A54671B0DA0C}"/>
+    <hyperlink ref="G101" r:id="rId19" tooltip="AS Monaco" display="https://www.transfermarkt.fr/as-monaco/kader/verein/162/saison_id/2018" xr:uid="{4A3320A1-32D2-44F6-A88B-ACA5B5EC8EF2}"/>
+    <hyperlink ref="G121" r:id="rId20" tooltip="AS Monaco" display="https://www.transfermarkt.fr/as-monaco/kader/verein/162/saison_id/2018" xr:uid="{25F88A81-A988-44A9-BB51-3B6E10C6F831}"/>
+    <hyperlink ref="G139" r:id="rId21" tooltip="AS Monaco" display="https://www.transfermarkt.fr/as-monaco/kader/verein/162/saison_id/2018" xr:uid="{E017164D-25DD-46E3-90D4-407D9483E2B9}"/>
+    <hyperlink ref="G5" r:id="rId22" tooltip="LOSC Lille" display="https://www.transfermarkt.fr/osc-lille/kader/verein/1082/saison_id/2018" xr:uid="{EF1A8156-CC38-4B99-B25E-2D10D70CADAB}"/>
+    <hyperlink ref="G25" r:id="rId23" tooltip="LOSC Lille" display="https://www.transfermarkt.fr/osc-lille/kader/verein/1082/saison_id/2018" xr:uid="{19FC515B-2FFC-49CB-9205-9CB02057C3A5}"/>
+    <hyperlink ref="G45" r:id="rId24" tooltip="LOSC Lille" display="https://www.transfermarkt.fr/osc-lille/kader/verein/1082/saison_id/2018" xr:uid="{8DF8BEBF-756C-4AA0-88AC-FDBE0F85DB9B}"/>
+    <hyperlink ref="G65" r:id="rId25" tooltip="LOSC Lille" display="https://www.transfermarkt.fr/osc-lille/kader/verein/1082/saison_id/2018" xr:uid="{390E7514-C4B8-4923-98E0-DE943229BA58}"/>
+    <hyperlink ref="G85" r:id="rId26" tooltip="LOSC Lille" display="https://www.transfermarkt.fr/osc-lille/kader/verein/1082/saison_id/2018" xr:uid="{F6F0B79F-CF5A-4D2C-969D-62673D392022}"/>
+    <hyperlink ref="G105" r:id="rId27" tooltip="LOSC Lille" display="https://www.transfermarkt.fr/osc-lille/kader/verein/1082/saison_id/2018" xr:uid="{D4B00ABA-A828-47D6-B2EF-F51C5DA80C2C}"/>
+    <hyperlink ref="G125" r:id="rId28" tooltip="LOSC Lille" display="https://www.transfermarkt.fr/osc-lille/kader/verein/1082/saison_id/2018" xr:uid="{B5AB1E10-DDAD-46F3-BAB6-3B8F64B41CDC}"/>
+    <hyperlink ref="G9" r:id="rId29" tooltip="Olympique de Marseille" display="https://www.transfermarkt.fr/olympique-marseille/kader/verein/244/saison_id/2018" xr:uid="{1B8F7C32-D5EB-476D-90CC-620D5C6061D1}"/>
+    <hyperlink ref="G29" r:id="rId30" tooltip="Olympique de Marseille" display="https://www.transfermarkt.fr/olympique-marseille/kader/verein/244/saison_id/2018" xr:uid="{59CFBF06-180F-4C6F-A489-CAB48A5A773D}"/>
+    <hyperlink ref="G48" r:id="rId31" tooltip="Olympique de Marseille" display="https://www.transfermarkt.fr/olympique-marseille/kader/verein/244/saison_id/2018" xr:uid="{8BE55D79-AB4A-4DFF-B7A2-AC0845E87803}"/>
+    <hyperlink ref="G70" r:id="rId32" tooltip="Olympique de Marseille" display="https://www.transfermarkt.fr/olympique-marseille/kader/verein/244/saison_id/2018" xr:uid="{B1D43BE3-DDC3-4F22-938F-F71D2860A987}"/>
+    <hyperlink ref="G90" r:id="rId33" tooltip="Olympique de Marseille" display="https://www.transfermarkt.fr/olympique-marseille/kader/verein/244/saison_id/2018" xr:uid="{AEBA2FD0-B559-49F1-AAA8-79F4073EF8B3}"/>
+    <hyperlink ref="G109" r:id="rId34" tooltip="Olympique de Marseille" display="https://www.transfermarkt.fr/olympique-marseille/kader/verein/244/saison_id/2018" xr:uid="{51DDA39A-301C-4A4D-8589-2545055F1D1A}"/>
+    <hyperlink ref="G127" r:id="rId35" tooltip="Olympique de Marseille" display="https://www.transfermarkt.fr/olympique-marseille/kader/verein/244/saison_id/2018" xr:uid="{135C6AF9-DF86-461B-A120-8C45E5C3C76E}"/>
+    <hyperlink ref="G11" r:id="rId36" tooltip="OGC Nice" display="https://www.transfermarkt.fr/ogc-nizza/kader/verein/417/saison_id/2018" xr:uid="{2CE4BDBD-F4D9-4C5F-B9F0-0CB649692B4B}"/>
+    <hyperlink ref="G30" r:id="rId37" tooltip="OGC Nice" display="https://www.transfermarkt.fr/ogc-nizza/kader/verein/417/saison_id/2018" xr:uid="{51718358-59F0-4147-8F3F-22360877AAB4}"/>
+    <hyperlink ref="G51" r:id="rId38" tooltip="OGC Nice" display="https://www.transfermarkt.fr/ogc-nizza/kader/verein/417/saison_id/2018" xr:uid="{459CC42D-A3F5-4225-8EE5-63A7192C2C41}"/>
+    <hyperlink ref="G71" r:id="rId39" tooltip="OGC Nice" display="https://www.transfermarkt.fr/ogc-nizza/kader/verein/417/saison_id/2018" xr:uid="{4BB12F0F-5420-48EF-AC5C-FB87E558DB41}"/>
+    <hyperlink ref="G92" r:id="rId40" tooltip="OGC Nice" display="https://www.transfermarkt.fr/ogc-nizza/kader/verein/417/saison_id/2018" xr:uid="{A1FA16EC-0422-499C-A329-74791702D5E4}"/>
+    <hyperlink ref="G110" r:id="rId41" tooltip="OGC Nice" display="https://www.transfermarkt.fr/ogc-nizza/kader/verein/417/saison_id/2018" xr:uid="{4E0FDAA5-F956-4CA8-827A-CB04C58506AB}"/>
+    <hyperlink ref="G131" r:id="rId42" tooltip="OGC Nice" display="https://www.transfermarkt.fr/ogc-nizza/kader/verein/417/saison_id/2018" xr:uid="{40F8B633-13E4-467A-96D9-5037082CD8FF}"/>
+    <hyperlink ref="G17" r:id="rId43" tooltip="Stade Rennais FC" display="https://www.transfermarkt.fr/fc-stade-rennes/kader/verein/273/saison_id/2018" xr:uid="{3B355979-17EA-45D4-B2C9-2300F7ACB338}"/>
+    <hyperlink ref="G32" r:id="rId44" tooltip="Stade Rennais FC" display="https://www.transfermarkt.fr/fc-stade-rennes/kader/verein/273/saison_id/2018" xr:uid="{956F2F2E-C9A4-4C0B-8484-B5E352AD96FC}"/>
+    <hyperlink ref="G52" r:id="rId45" tooltip="Stade Rennais FC" display="https://www.transfermarkt.fr/fc-stade-rennes/kader/verein/273/saison_id/2018" xr:uid="{8379806C-147B-49E3-A89F-48B3A1BBA03A}"/>
+    <hyperlink ref="G73" r:id="rId46" tooltip="Stade Rennais FC" display="https://www.transfermarkt.fr/fc-stade-rennes/kader/verein/273/saison_id/2018" xr:uid="{12BF0E78-3C42-42EB-BB21-FFD261804AB8}"/>
+    <hyperlink ref="G93" r:id="rId47" tooltip="Stade Rennais FC" display="https://www.transfermarkt.fr/fc-stade-rennes/kader/verein/273/saison_id/2018" xr:uid="{1D0A4460-70C5-4312-AC4F-AAEF91C0FA6A}"/>
+    <hyperlink ref="G111" r:id="rId48" tooltip="Stade Rennais FC" display="https://www.transfermarkt.fr/fc-stade-rennes/kader/verein/273/saison_id/2018" xr:uid="{BA97A60D-DB12-47D4-BF64-6CB99153A0E5}"/>
+    <hyperlink ref="G134" r:id="rId49" tooltip="Stade Rennais FC" display="https://www.transfermarkt.fr/fc-stade-rennes/kader/verein/273/saison_id/2018" xr:uid="{9AF4EA11-3265-4D67-82DC-3B779B494677}"/>
+    <hyperlink ref="G14" r:id="rId50" tooltip="FC Girondins Bordeaux" display="https://www.transfermarkt.fr/fc-girondins-bordeaux/kader/verein/40/saison_id/2018" xr:uid="{C5DD9DCA-3525-4755-8AD7-81A06E256C7B}"/>
+    <hyperlink ref="G35" r:id="rId51" tooltip="FC Girondins Bordeaux" display="https://www.transfermarkt.fr/fc-girondins-bordeaux/kader/verein/40/saison_id/2018" xr:uid="{469E0482-F1FF-4784-88F4-DCCB3EED189F}"/>
+    <hyperlink ref="G54" r:id="rId52" tooltip="FC Girondins Bordeaux" display="https://www.transfermarkt.fr/fc-girondins-bordeaux/kader/verein/40/saison_id/2018" xr:uid="{052DCB39-CF4A-483E-BEF6-3CB43220F3AC}"/>
+    <hyperlink ref="G75" r:id="rId53" tooltip="FC Girondins Bordeaux" display="https://www.transfermarkt.fr/fc-girondins-bordeaux/kader/verein/40/saison_id/2018" xr:uid="{FA6081B4-13A9-415E-8E4E-6C7072AAF959}"/>
+    <hyperlink ref="G95" r:id="rId54" tooltip="FC Girondins Bordeaux" display="https://www.transfermarkt.fr/fc-girondins-bordeaux/kader/verein/40/saison_id/2018" xr:uid="{75E451E2-0284-415D-A546-460E897CA387}"/>
+    <hyperlink ref="G116" r:id="rId55" tooltip="FC Girondins Bordeaux" display="https://www.transfermarkt.fr/fc-girondins-bordeaux/kader/verein/40/saison_id/2018" xr:uid="{0D286877-036F-4B6B-BA40-BA99F99CABE9}"/>
+    <hyperlink ref="G136" r:id="rId56" tooltip="FC Girondins Bordeaux" display="https://www.transfermarkt.fr/fc-girondins-bordeaux/kader/verein/40/saison_id/2018" xr:uid="{FFFD758D-CC21-48A4-A2F6-3EDDF8B1839C}"/>
+    <hyperlink ref="G10" r:id="rId57" tooltip="AS Saint-Étienne" display="https://www.transfermarkt.fr/as-saint-etienne/kader/verein/618/saison_id/2018" xr:uid="{1361E701-8035-4CE5-9F18-C69211ADCD82}"/>
+    <hyperlink ref="G26" r:id="rId58" tooltip="AS Saint-Étienne" display="https://www.transfermarkt.fr/as-saint-etienne/kader/verein/618/saison_id/2018" xr:uid="{0C77F685-47C9-4022-A3AD-AFDCCD2C22F9}"/>
+    <hyperlink ref="G47" r:id="rId59" tooltip="AS Saint-Étienne" display="https://www.transfermarkt.fr/as-saint-etienne/kader/verein/618/saison_id/2018" xr:uid="{ADFCD791-D9AA-4E3F-B1B7-89FF3E4D0CBC}"/>
+    <hyperlink ref="G67" r:id="rId60" tooltip="AS Saint-Étienne" display="https://www.transfermarkt.fr/as-saint-etienne/kader/verein/618/saison_id/2018" xr:uid="{B931796E-C6F2-49C2-B6B5-35241599BCAD}"/>
+    <hyperlink ref="G87" r:id="rId61" tooltip="AS Saint-Étienne" display="https://www.transfermarkt.fr/as-saint-etienne/kader/verein/618/saison_id/2018" xr:uid="{0517EEFD-28C2-41E9-AAE6-EEB3663699BF}"/>
+    <hyperlink ref="G107" r:id="rId62" tooltip="AS Saint-Étienne" display="https://www.transfermarkt.fr/as-saint-etienne/kader/verein/618/saison_id/2018" xr:uid="{DC94256C-34A9-4FA4-88EC-B3B061D57E6A}"/>
+    <hyperlink ref="G128" r:id="rId63" tooltip="AS Saint-Étienne" display="https://www.transfermarkt.fr/as-saint-etienne/kader/verein/618/saison_id/2018" xr:uid="{F4C264AF-BF25-49CA-AD63-19696FF36B95}"/>
+    <hyperlink ref="G13" r:id="rId64" tooltip="RC Strasbourg Alsace" display="https://www.transfermarkt.fr/racing-strassburg/kader/verein/667/saison_id/2018" xr:uid="{94CFC28B-DA67-4ECF-BC9F-44BD8AB74CD5}"/>
+    <hyperlink ref="G31" r:id="rId65" tooltip="RC Strasbourg Alsace" display="https://www.transfermarkt.fr/racing-strassburg/kader/verein/667/saison_id/2018" xr:uid="{C946BA0B-9899-45B4-AE17-C8979F4BA25D}"/>
+    <hyperlink ref="G49" r:id="rId66" tooltip="RC Strasbourg Alsace" display="https://www.transfermarkt.fr/racing-strassburg/kader/verein/667/saison_id/2018" xr:uid="{BC70BCC7-0DEE-4F9D-9B70-092EDD619718}"/>
+    <hyperlink ref="G68" r:id="rId67" tooltip="RC Strasbourg Alsace" display="https://www.transfermarkt.fr/racing-strassburg/kader/verein/667/saison_id/2018" xr:uid="{228BB6DD-B134-4D41-B9B7-02F1F96A9F62}"/>
+    <hyperlink ref="G89" r:id="rId68" tooltip="RC Strasbourg Alsace" display="https://www.transfermarkt.fr/racing-strassburg/kader/verein/667/saison_id/2018" xr:uid="{EFE04920-2410-49BC-80E4-7D27629B1D86}"/>
+    <hyperlink ref="G112" r:id="rId69" tooltip="RC Strasbourg Alsace" display="https://www.transfermarkt.fr/racing-strassburg/kader/verein/667/saison_id/2018" xr:uid="{CE170261-2AD0-4DA3-B6D2-E7645E52BC85}"/>
+    <hyperlink ref="G132" r:id="rId70" tooltip="RC Strasbourg Alsace" display="https://www.transfermarkt.fr/racing-strassburg/kader/verein/667/saison_id/2018" xr:uid="{F5C796DE-14AF-49B7-8421-992266633131}"/>
+    <hyperlink ref="G19" r:id="rId71" tooltip="FC Toulouse" display="https://www.transfermarkt.fr/fc-toulouse/kader/verein/415/saison_id/2018" xr:uid="{E51874EF-CC70-413F-BB3D-E46D0A56D0D1}"/>
+    <hyperlink ref="G37" r:id="rId72" tooltip="FC Toulouse" display="https://www.transfermarkt.fr/fc-toulouse/kader/verein/415/saison_id/2018" xr:uid="{585B6245-13D1-45E0-BFE2-1047C54E7E52}"/>
+    <hyperlink ref="G56" r:id="rId73" tooltip="FC Toulouse" display="https://www.transfermarkt.fr/fc-toulouse/kader/verein/415/saison_id/2018" xr:uid="{717AB441-5A68-4508-8FCD-7561C67B30D8}"/>
+    <hyperlink ref="G76" r:id="rId74" tooltip="FC Toulouse" display="https://www.transfermarkt.fr/fc-toulouse/kader/verein/415/saison_id/2018" xr:uid="{B0F26879-54D3-4425-AA25-8CC10CA8D166}"/>
+    <hyperlink ref="G98" r:id="rId75" tooltip="FC Toulouse" display="https://www.transfermarkt.fr/fc-toulouse/kader/verein/415/saison_id/2018" xr:uid="{77E1E5C7-4B83-4E90-AFA5-D6AB196F2438}"/>
+    <hyperlink ref="G118" r:id="rId76" tooltip="FC Toulouse" display="https://www.transfermarkt.fr/fc-toulouse/kader/verein/415/saison_id/2018" xr:uid="{9B0667A5-FBD5-42A5-ADA3-AEEFE7DFA6F9}"/>
+    <hyperlink ref="G138" r:id="rId77" tooltip="FC Toulouse" display="https://www.transfermarkt.fr/fc-toulouse/kader/verein/415/saison_id/2018" xr:uid="{68B4C51F-F442-42ED-9893-2EDFC439C2C6}"/>
+    <hyperlink ref="G7" r:id="rId78" tooltip="HSC Montpellier" display="https://www.transfermarkt.fr/hsc-montpellier/kader/verein/969/saison_id/2018" xr:uid="{E79B5626-0166-44B3-A956-E8579F5D5ECC}"/>
+    <hyperlink ref="G28" r:id="rId79" tooltip="HSC Montpellier" display="https://www.transfermarkt.fr/hsc-montpellier/kader/verein/969/saison_id/2018" xr:uid="{1495B5AC-1B47-470E-AA8F-08AC45290D2B}"/>
+    <hyperlink ref="G50" r:id="rId80" tooltip="HSC Montpellier" display="https://www.transfermarkt.fr/hsc-montpellier/kader/verein/969/saison_id/2018" xr:uid="{31EFBA96-B4FF-4740-82C2-F1DAA073A704}"/>
+    <hyperlink ref="G69" r:id="rId81" tooltip="HSC Montpellier" display="https://www.transfermarkt.fr/hsc-montpellier/kader/verein/969/saison_id/2018" xr:uid="{8A2BDE4D-592B-4160-9A6B-D7CD4D4F3A52}"/>
+    <hyperlink ref="G88" r:id="rId82" tooltip="HSC Montpellier" display="https://www.transfermarkt.fr/hsc-montpellier/kader/verein/969/saison_id/2018" xr:uid="{41B54FE0-8359-47BF-AFE9-CB1AB890DA56}"/>
+    <hyperlink ref="G108" r:id="rId83" tooltip="HSC Montpellier" display="https://www.transfermarkt.fr/hsc-montpellier/kader/verein/969/saison_id/2018" xr:uid="{F386381C-6669-4545-9854-D319489EF39D}"/>
+    <hyperlink ref="G129" r:id="rId84" tooltip="HSC Montpellier" display="https://www.transfermarkt.fr/hsc-montpellier/kader/verein/969/saison_id/2018" xr:uid="{6730E074-5E28-4754-BA57-5195426EB0C2}"/>
+    <hyperlink ref="G15" r:id="rId85" tooltip="Stade Reims" display="https://www.transfermarkt.fr/stade-reims/kader/verein/1421/saison_id/2018" xr:uid="{1AE94ED5-04ED-464C-9417-819A68F0D5F2}"/>
+    <hyperlink ref="G34" r:id="rId86" tooltip="Stade Reims" display="https://www.transfermarkt.fr/stade-reims/kader/verein/1421/saison_id/2018" xr:uid="{B88F39EC-2A66-4438-81DC-BEF4F1261FAB}"/>
+    <hyperlink ref="G55" r:id="rId87" tooltip="Stade Reims" display="https://www.transfermarkt.fr/stade-reims/kader/verein/1421/saison_id/2018" xr:uid="{0E10F861-0967-4635-B097-E6FC01DBA5DD}"/>
+    <hyperlink ref="G72" r:id="rId88" tooltip="Stade Reims" display="https://www.transfermarkt.fr/stade-reims/kader/verein/1421/saison_id/2018" xr:uid="{7B274615-1779-4AFF-9D37-C08F484BADB9}"/>
+    <hyperlink ref="G91" r:id="rId89" tooltip="Stade Reims" display="https://www.transfermarkt.fr/stade-reims/kader/verein/1421/saison_id/2018" xr:uid="{05F79462-69A0-407F-BE0D-3E66D9C6FB59}"/>
+    <hyperlink ref="G113" r:id="rId90" tooltip="Stade Reims" display="https://www.transfermarkt.fr/stade-reims/kader/verein/1421/saison_id/2018" xr:uid="{0E1245EC-901F-4860-AF24-2E482C0C4DFD}"/>
+    <hyperlink ref="G130" r:id="rId91" tooltip="Stade Reims" display="https://www.transfermarkt.fr/stade-reims/kader/verein/1421/saison_id/2018" xr:uid="{5F489F6C-F68D-4DF0-BB51-59C63E0D364C}"/>
+    <hyperlink ref="G16" r:id="rId92" tooltip="FC Nantes" display="https://www.transfermarkt.fr/fc-nantes/kader/verein/995/saison_id/2018" xr:uid="{2D855191-93B5-4492-8677-0CF44641B4A5}"/>
+    <hyperlink ref="G36" r:id="rId93" tooltip="FC Nantes" display="https://www.transfermarkt.fr/fc-nantes/kader/verein/995/saison_id/2018" xr:uid="{9CEDBAFC-E6E9-4DE8-B162-4DEE1B889940}"/>
+    <hyperlink ref="G57" r:id="rId94" tooltip="FC Nantes" display="https://www.transfermarkt.fr/fc-nantes/kader/verein/995/saison_id/2018" xr:uid="{69187835-BEFC-4098-9476-882129C1163C}"/>
+    <hyperlink ref="G77" r:id="rId95" tooltip="FC Nantes" display="https://www.transfermarkt.fr/fc-nantes/kader/verein/995/saison_id/2018" xr:uid="{6A827E33-3098-4328-9022-55934204629A}"/>
+    <hyperlink ref="G96" r:id="rId96" tooltip="FC Nantes" display="https://www.transfermarkt.fr/fc-nantes/kader/verein/995/saison_id/2018" xr:uid="{27A44EF8-421F-4381-9331-20776AF43268}"/>
+    <hyperlink ref="G117" r:id="rId97" tooltip="FC Nantes" display="https://www.transfermarkt.fr/fc-nantes/kader/verein/995/saison_id/2018" xr:uid="{FBF07B0C-20B0-4395-918F-64526B5DA334}"/>
+    <hyperlink ref="G137" r:id="rId98" tooltip="FC Nantes" display="https://www.transfermarkt.fr/fc-nantes/kader/verein/995/saison_id/2018" xr:uid="{B7D3C7B9-47C1-457E-9C93-58172D1F8D16}"/>
+    <hyperlink ref="G18" r:id="rId99" tooltip="SCO Angers" display="https://www.transfermarkt.fr/sco-angers/kader/verein/1420/saison_id/2018" xr:uid="{25877D97-B190-4287-8E87-3C2D3BA00A61}"/>
+    <hyperlink ref="G38" r:id="rId100" tooltip="SCO Angers" display="https://www.transfermarkt.fr/sco-angers/kader/verein/1420/saison_id/2018" xr:uid="{30F99553-1056-49D8-A8CE-3738475A8097}"/>
+    <hyperlink ref="G58" r:id="rId101" tooltip="SCO Angers" display="https://www.transfermarkt.fr/sco-angers/kader/verein/1420/saison_id/2018" xr:uid="{0D251334-29FE-4EA6-957C-B203DF490320}"/>
+    <hyperlink ref="G78" r:id="rId102" tooltip="SCO Angers" display="https://www.transfermarkt.fr/sco-angers/kader/verein/1420/saison_id/2018" xr:uid="{5C9D102A-BB64-4D3E-8174-FA37741CED1F}"/>
+    <hyperlink ref="G97" r:id="rId103" tooltip="SCO Angers" display="https://www.transfermarkt.fr/sco-angers/kader/verein/1420/saison_id/2018" xr:uid="{788F0608-9CD3-47DB-A68E-A173626F99A0}"/>
+    <hyperlink ref="G115" r:id="rId104" tooltip="SCO Angers" display="https://www.transfermarkt.fr/sco-angers/kader/verein/1420/saison_id/2018" xr:uid="{108CBE32-055C-41F5-9647-A42BDB8D021D}"/>
+    <hyperlink ref="G135" r:id="rId105" tooltip="SCO Angers" display="https://www.transfermarkt.fr/sco-angers/kader/verein/1420/saison_id/2018" xr:uid="{81726008-8D09-4FE9-8846-EFDEB940F061}"/>
+    <hyperlink ref="G22" r:id="rId106" tooltip="SC Amiens" display="https://www.transfermarkt.fr/sc-amiens/kader/verein/1416/saison_id/2018" xr:uid="{C792A78B-E8BD-4567-87D9-39E6CD4485D6}"/>
+    <hyperlink ref="G40" r:id="rId107" tooltip="SC Amiens" display="https://www.transfermarkt.fr/sc-amiens/kader/verein/1416/saison_id/2018" xr:uid="{32B6D66A-7D4C-446D-82AA-AA964DFB9B9C}"/>
+    <hyperlink ref="G60" r:id="rId108" tooltip="SC Amiens" display="https://www.transfermarkt.fr/sc-amiens/kader/verein/1416/saison_id/2018" xr:uid="{089C8867-51B5-4481-A6CF-E40B4796EB98}"/>
+    <hyperlink ref="G81" r:id="rId109" tooltip="SC Amiens" display="https://www.transfermarkt.fr/sc-amiens/kader/verein/1416/saison_id/2018" xr:uid="{113DCE57-2DCE-4107-9CE4-8FE7B9570EA1}"/>
+    <hyperlink ref="G102" r:id="rId110" tooltip="SC Amiens" display="https://www.transfermarkt.fr/sc-amiens/kader/verein/1416/saison_id/2018" xr:uid="{47317ACC-CF21-4900-BD83-45CD7C2D36CE}"/>
+    <hyperlink ref="G119" r:id="rId111" tooltip="SC Amiens" display="https://www.transfermarkt.fr/sc-amiens/kader/verein/1416/saison_id/2018" xr:uid="{6F364BD4-A1D5-4F69-BF8E-63F4505EAE04}"/>
+    <hyperlink ref="G140" r:id="rId112" tooltip="SC Amiens" display="https://www.transfermarkt.fr/sc-amiens/kader/verein/1416/saison_id/2018" xr:uid="{8D47845C-C966-412F-B83B-252E941E2914}"/>
+    <hyperlink ref="G12" r:id="rId113" tooltip="Nîmes Olympique" display="https://www.transfermarkt.fr/olympique-nimes/kader/verein/1160/saison_id/2018" xr:uid="{99A0AE25-9577-4CF4-83A2-57E22E6C8F2B}"/>
+    <hyperlink ref="G33" r:id="rId114" tooltip="Nîmes Olympique" display="https://www.transfermarkt.fr/olympique-nimes/kader/verein/1160/saison_id/2018" xr:uid="{A8EDF1AD-B2F9-4DDB-A296-CB01E3F59E55}"/>
+    <hyperlink ref="G53" r:id="rId115" tooltip="Nîmes Olympique" display="https://www.transfermarkt.fr/olympique-nimes/kader/verein/1160/saison_id/2018" xr:uid="{7E930932-3C6A-48BA-AD25-03C93744634F}"/>
+    <hyperlink ref="G74" r:id="rId116" tooltip="Nîmes Olympique" display="https://www.transfermarkt.fr/olympique-nimes/kader/verein/1160/saison_id/2018" xr:uid="{BADC3A4B-9589-46B2-A5E6-EFEC37CAC771}"/>
+    <hyperlink ref="G94" r:id="rId117" tooltip="Nîmes Olympique" display="https://www.transfermarkt.fr/olympique-nimes/kader/verein/1160/saison_id/2018" xr:uid="{F1C1BFE6-DF06-45D6-A056-BD408476A9FC}"/>
+    <hyperlink ref="G114" r:id="rId118" tooltip="Nîmes Olympique" display="https://www.transfermarkt.fr/olympique-nimes/kader/verein/1160/saison_id/2018" xr:uid="{F46779BE-7A76-4B0A-B8F7-2345D5B1B8A3}"/>
+    <hyperlink ref="G133" r:id="rId119" tooltip="Nîmes Olympique" display="https://www.transfermarkt.fr/olympique-nimes/kader/verein/1160/saison_id/2018" xr:uid="{3545696B-6D12-46A7-913A-02412AD89745}"/>
+    <hyperlink ref="G20" r:id="rId120" tooltip="FCO Dijon" display="https://www.transfermarkt.fr/fco-dijon/kader/verein/2969/saison_id/2018" xr:uid="{159C9EC7-8ECA-4C1D-AD8E-AE54685FE424}"/>
+    <hyperlink ref="G41" r:id="rId121" tooltip="FCO Dijon" display="https://www.transfermarkt.fr/fco-dijon/kader/verein/2969/saison_id/2018" xr:uid="{919D08BB-EEDA-467A-8386-B2990053B431}"/>
+    <hyperlink ref="G61" r:id="rId122" tooltip="FCO Dijon" display="https://www.transfermarkt.fr/fco-dijon/kader/verein/2969/saison_id/2018" xr:uid="{3AD86075-9CFC-4A9E-84C9-FDE51C9B7590}"/>
+    <hyperlink ref="G79" r:id="rId123" tooltip="FCO Dijon" display="https://www.transfermarkt.fr/fco-dijon/kader/verein/2969/saison_id/2018" xr:uid="{F841044F-F226-4AB9-BA6B-F4135CE13969}"/>
+    <hyperlink ref="G99" r:id="rId124" tooltip="FCO Dijon" display="https://www.transfermarkt.fr/fco-dijon/kader/verein/2969/saison_id/2018" xr:uid="{FBCC25A5-31B5-47EF-93B9-AC88EEC1D31B}"/>
+    <hyperlink ref="G120" r:id="rId125" tooltip="FCO Dijon" display="https://www.transfermarkt.fr/fco-dijon/kader/verein/2969/saison_id/2018" xr:uid="{DF6C78E5-E119-48CF-B94C-DCE2B5BA4B70}"/>
+    <hyperlink ref="G141" r:id="rId126" tooltip="FCO Dijon" display="https://www.transfermarkt.fr/fco-dijon/kader/verein/2969/saison_id/2018" xr:uid="{F29D6F8D-41DA-438F-AB90-E19B2771D86D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>